--- a/results/AS_bank_mixed/Classifier_GCN_001/Training Data.xlsx
+++ b/results/AS_bank_mixed/Classifier_GCN_001/Training Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,39 +495,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9307347719485943</v>
+        <v>12.0983274441499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02024807692307692</v>
+        <v>0.2086788461538461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9797519230769229</v>
+        <v>0.791321153846154</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003742563222537337</v>
+        <v>0.001223095174784671</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009820846023743286</v>
+        <v>0.001548183804818925</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2627979813708559</v>
+        <v>0.5884113524801784</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6214716786845698</v>
+        <v>0.6899218274899936</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01575519158756113</v>
+        <v>0.003085989645084122</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>509397 10319 210 74</t>
+          <t>411320 108396 117 167</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.944395124912262</v>
+        <v>37.38260269165039</v>
       </c>
     </row>
     <row r="3">
@@ -535,39 +535,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7580084353685379</v>
+        <v>0.8935191963727658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01561346153846154</v>
+        <v>0.04782692307692309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9843865384615386</v>
+        <v>0.9521730769230768</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02197832682584387</v>
+        <v>0.002631565700358439</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03445713842647428</v>
+        <v>0.00480363747102045</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5813177937671865</v>
+        <v>0.4444085912962432</v>
       </c>
       <c r="I3" t="n">
-        <v>0.78296007616615</v>
+        <v>0.6984364584480893</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05894871411260134</v>
+        <v>0.009471937125708195</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>511713 8003 116 168</t>
+          <t>495011 24705 165 119</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.8030957579612732</v>
+        <v>6.285114288330078</v>
       </c>
     </row>
     <row r="4">
@@ -575,39 +575,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5844284548209264</v>
+        <v>0.5003466692108375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01824038461538462</v>
+        <v>0.06810192307692307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9817596153846153</v>
+        <v>0.9318980769230769</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01895685450552369</v>
+        <v>0.006883335746988628</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02515881266078112</v>
+        <v>0.007332047512494015</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7159848361265367</v>
+        <v>0.9033815206386057</v>
       </c>
       <c r="I4" t="n">
-        <v>0.848948469245125</v>
+        <v>0.9176423310641592</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04750981812344087</v>
+        <v>0.01451350764769387</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>510315 9401 84 200</t>
+          <t>484325 35391 22 262</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.6385541558265686</v>
+        <v>2.612732887268066</v>
       </c>
     </row>
     <row r="5">
@@ -615,39 +615,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4220670249599677</v>
+        <v>0.2512121435541373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02595961538461538</v>
+        <v>0.06877115384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9740403846153846</v>
+        <v>0.931228846153846</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01654626056322378</v>
+        <v>0.00693988124504936</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01882355803890744</v>
+        <v>0.007343617584435363</v>
       </c>
       <c r="H5" t="n">
-        <v>0.883773971754741</v>
+        <v>0.9316394469228477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9289387827733755</v>
+        <v>0.9314335893341783</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03654682823318493</v>
+        <v>0.0145390921782988</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>506257 13459 40 244</t>
+          <t>483974 35742 19 265</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.4797495603561401</v>
+        <v>1.573081493377686</v>
       </c>
     </row>
     <row r="6">
@@ -655,39 +655,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3184005583708103</v>
+        <v>0.6439751100081664</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02789423076923077</v>
+        <v>0.03289423076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9721057692307694</v>
+        <v>0.9671057692307693</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01605856686528588</v>
+        <v>0.009775612568998414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01794355164412267</v>
+        <v>0.01228164898919552</v>
       </c>
       <c r="H6" t="n">
-        <v>0.895920585824432</v>
+        <v>0.7473026018066503</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9340394800903357</v>
+        <v>0.8572634917737803</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03490242438705172</v>
+        <v>0.02405329876943056</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>505246 14470 35 249</t>
+          <t>502682 17034 71 213</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.3546104729175568</v>
+        <v>1.178820848464966</v>
       </c>
     </row>
     <row r="7">
@@ -695,39 +695,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242429263316668</v>
+        <v>0.3023139542111984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03854230769230768</v>
+        <v>0.004434615384615383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9614576923076924</v>
+        <v>0.9955653846153847</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01347688875818625</v>
+        <v>0.03621645919632799</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01424086601575041</v>
+        <v>0.05976354055608838</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9415216727716729</v>
+        <v>0.5256766035359153</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9514969953031714</v>
+        <v>0.7607592780818681</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02788450903623236</v>
+        <v>0.1041309890664712</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>499692 20024 18 266</t>
+          <t>517555 2161 145 139</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.2791333794593811</v>
+        <v>1.545416235923767</v>
       </c>
     </row>
     <row r="8">
@@ -735,39 +735,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2210098295830763</v>
+        <v>0.3095095547345968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02734615384615385</v>
+        <v>0.004542307692307693</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9726538461538461</v>
+        <v>0.9954576923076922</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01773107573357056</v>
+        <v>0.03557886699277058</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01937893298880584</v>
+        <v>0.05831585749204619</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9152496008265238</v>
+        <v>0.5190197988021874</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9439715276368579</v>
+        <v>0.7573770016557068</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03760354475826543</v>
+        <v>0.1019328013896167</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>505524 14192 28 256</t>
+          <t>517499 2217 145 139</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.230128601193428</v>
+        <v>1.217948913574219</v>
       </c>
     </row>
     <row r="9">
@@ -775,39 +775,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1952862043220263</v>
+        <v>0.2993891545786307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02785192307692308</v>
+        <v>0.003088461538461538</v>
       </c>
       <c r="D9" t="n">
-        <v>0.972148076923077</v>
+        <v>0.9969115384615382</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01857410474980825</v>
+        <v>0.05675012953156162</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01988672640969042</v>
+        <v>0.09011190817497791</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9274801587301587</v>
+        <v>0.5484831239385894</v>
       </c>
       <c r="I9" t="n">
-        <v>0.949829021203323</v>
+        <v>0.7728282889239902</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03855071951128607</v>
+        <v>0.1491344604530306</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>505256 14460 23 261</t>
+          <t>518247 1469 137 147</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.2061654329299927</v>
+        <v>1.65548837184906</v>
       </c>
     </row>
     <row r="10">
@@ -815,39 +815,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1765320302488712</v>
+        <v>0.2752533896038166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02704423076923077</v>
+        <v>0.06855769230769232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9729557692307692</v>
+        <v>0.9314423076923075</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02013483286177124</v>
+        <v>0.007005820654802383</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02146370643296606</v>
+        <v>0.007387134963657478</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9351114163614164</v>
+        <v>0.9534033330592033</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9540469179093422</v>
+        <v>0.9424213552946761</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04146097970620818</v>
+        <v>0.0146265176806036</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>505674 14042 21 263</t>
+          <t>484084 35632 18 266</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.196327731013298</v>
+        <v>0.933434784412384</v>
       </c>
     </row>
     <row r="11">
@@ -855,39 +855,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1884750917267341</v>
+        <v>0.3086220878534592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0175</v>
+        <v>0.005807692307692306</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9824999999999999</v>
+        <v>0.9941923076923076</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03212143176389403</v>
+        <v>0.03199858333282349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03567712064396362</v>
+        <v>0.04986122286993584</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8859846883885345</v>
+        <v>0.568411272712892</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9342707797968074</v>
+        <v>0.7814262039469539</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06673604396329982</v>
+        <v>0.08981560846631562</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>510650 9066 34 250</t>
+          <t>516827 2889 131 153</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.1826454252004623</v>
+        <v>0.8762801885604858</v>
       </c>
     </row>
     <row r="12">
@@ -895,39 +895,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1927496224928361</v>
+        <v>0.2720992043614388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01342692307692308</v>
+        <v>0.05097307692307692</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9865730769230769</v>
+        <v>0.9490269230769234</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04242673833078688</v>
+        <v>0.00816009541414575</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0480214367686767</v>
+        <v>0.009154724726886736</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8698087702895395</v>
+        <v>0.8747140736007134</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9282252310877896</v>
+        <v>0.9118930739165608</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08754440021792728</v>
+        <v>0.01806449404758068</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>512773 6943 39 245</t>
+          <t>493248 26468 38 246</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.1768255680799484</v>
+        <v>0.7132005095481873</v>
       </c>
     </row>
     <row r="13">
@@ -935,39 +935,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1697374447607077</v>
+        <v>0.2414729274236239</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01316923076923077</v>
+        <v>0.05660384615384616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9868307692307692</v>
+        <v>0.9433961538461541</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04646365148364585</v>
+        <v>0.007790341129840144</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05219450636064194</v>
+        <v>0.008526634768351636</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8831458605497068</v>
+        <v>0.8986132513460449</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9350189156146909</v>
+        <v>0.9210180504541974</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0945490616493401</v>
+        <v>0.01684656345485636</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>512903 6813 35 249</t>
+          <t>490312 29404 30 254</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.1665859222412109</v>
+        <v>0.6015796065330505</v>
       </c>
     </row>
     <row r="14">
@@ -975,39 +975,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1475658241945964</v>
+        <v>0.2396715578551476</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01646346153846154</v>
+        <v>0.05706153846153846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9835365384615383</v>
+        <v>0.9429384615384616</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04034282049100183</v>
+        <v>0.007847568559451958</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04320109595487603</v>
+        <v>0.008526829535550009</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9083662064431296</v>
+        <v>0.9111872158430864</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9459706004503463</v>
+        <v>0.9270741319836732</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07969434512278885</v>
+        <v>0.01684925097462393</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>511179 8537 24 260</t>
+          <t>490072 29644 28 256</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.1638905555009842</v>
+        <v>0.5865494012832642</v>
       </c>
     </row>
     <row r="15">
@@ -1015,39 +1015,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1724444086878346</v>
+        <v>0.2328787973293891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008621153846153844</v>
+        <v>0.06400961538461537</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9913788461538461</v>
+        <v>0.9359903846153848</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07534409323587395</v>
+        <v>0.007139540712627854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0853834689365443</v>
+        <v>0.007692393146940878</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8712129216936908</v>
+        <v>0.9183397124692672</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9313305074705092</v>
+        <v>0.9271715483630657</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1452644725608339</v>
+        <v>0.01521975254271533</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>515271 4445 38 246</t>
+          <t>486456 33260 25 259</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.1634270250797272</v>
+        <v>0.4110564887523651</v>
       </c>
     </row>
     <row r="16">
@@ -1055,39 +1055,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1606798722910193</v>
+        <v>0.2414422396283883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008626923076923077</v>
+        <v>0.0669730769230769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.991373076923077</v>
+        <v>0.9330269230769233</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07603275385602061</v>
+        <v>0.006935447547985944</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08610789429405943</v>
+        <v>0.007423232985623645</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8712129216936908</v>
+        <v>0.9236677177972724</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9313276732434193</v>
+        <v>0.9283510983019119</v>
       </c>
       <c r="J16" t="n">
-        <v>0.146963551269716</v>
+        <v>0.01469350270565706</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>515268 4448 38 246</t>
+          <t>484913 34803 23 261</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.1575315296649933</v>
+        <v>0.3702495396137238</v>
       </c>
     </row>
     <row r="17">
@@ -1095,39 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1455105132638262</v>
+        <v>0.2717264704406261</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009786538461538465</v>
+        <v>0.03651923076923078</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9902134615384615</v>
+        <v>0.9634807692307692</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07251997029848846</v>
+        <v>0.01075673994252794</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07933152724399792</v>
+        <v>0.01241655144072205</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8951040412578876</v>
+        <v>0.8539766969422841</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9426845246562038</v>
+        <v>0.908762006711743</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1376686132948465</v>
+        <v>0.02437566415965393</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>514656 5060 29 255</t>
+          <t>500771 18945 45 239</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.1627370864152908</v>
+        <v>0.3189976215362549</v>
       </c>
     </row>
     <row r="18">
@@ -1135,39 +1135,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1456291911980281</v>
+        <v>0.2302658365896115</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009005769230769232</v>
+        <v>0.05984807692307691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9909942307692308</v>
+        <v>0.9401519230769231</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07737140334200227</v>
+        <v>0.007587991855979726</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08561672557107707</v>
+        <v>0.008199783923957513</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8838121280428973</v>
+        <v>0.9157756099051646</v>
       </c>
       <c r="I18" t="n">
-        <v>0.937432018453924</v>
+        <v>0.9279723867614732</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1466843271332832</v>
+        <v>0.01621124388667713</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>515065 4651 32 252</t>
+          <t>488621 31095 26 258</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.1551939994096756</v>
+        <v>0.261883020401001</v>
       </c>
     </row>
     <row r="19">
@@ -1175,39 +1175,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1558744163753895</v>
+        <v>0.2444458999312841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005928846153846153</v>
+        <v>0.06944615384615384</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9940711538461537</v>
+        <v>0.930553846153846</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1121448543390596</v>
+        <v>0.006922640499685746</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1262186860795187</v>
+        <v>0.007296929866444291</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8695311099157252</v>
+        <v>0.9389912831208378</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9318364301624312</v>
+        <v>0.9347708560183585</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2022218636500346</v>
+        <v>0.01444849942638528</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>516671 3045 38 246</t>
+          <t>483622 36094 18 266</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.1539639830589294</v>
+        <v>0.3056463897228241</v>
       </c>
     </row>
     <row r="20">
@@ -1215,39 +1215,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1680836805787224</v>
+        <v>0.2769014136149333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004934615384615384</v>
+        <v>0.01674615384615384</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9950653846153845</v>
+        <v>0.9832538461538461</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1243294696054398</v>
+        <v>0.01842962574771724</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1422483181454733</v>
+        <v>0.02357123055170102</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8593214477829861</v>
+        <v>0.75161138063466</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9272327569011464</v>
+        <v>0.8675011278393645</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2230697173271801</v>
+        <v>0.04531715159587099</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>517192 2524 42 242</t>
+          <t>511084 8632 76 208</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.1546238511800766</v>
+        <v>0.2774837613105774</v>
       </c>
     </row>
     <row r="21">
@@ -1255,39 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1363302333853566</v>
+        <v>0.221157915603656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.06337884615384616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.99215</v>
+        <v>0.9366211538461537</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09339949455889676</v>
+        <v>0.00716901991764171</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1025441442935587</v>
+        <v>0.007745108512931814</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8831711024018716</v>
+        <v>0.9157756099051646</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9376897000796638</v>
+        <v>0.9262060266374507</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1710800470818419</v>
+        <v>0.01532222538306978</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>515666 4050 32 252</t>
+          <t>486785 32931 26 258</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.1524841338396072</v>
+        <v>0.2888185083866119</v>
       </c>
     </row>
     <row r="22">
@@ -1295,39 +1295,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1271646009184993</v>
+        <v>0.2269972872275572</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008905769230769231</v>
+        <v>0.06162884615384616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.991094230769231</v>
+        <v>0.9383711538461537</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08538938947364486</v>
+        <v>0.007325664730166494</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09243749323283061</v>
+        <v>0.00794021824716841</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9034091976399667</v>
+        <v>0.9137513184071889</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9472768015134641</v>
+        <v>0.9260703380285905</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1571267956167155</v>
+        <v>0.01570322523286164</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>515113 4603 28 256</t>
+          <t>487696 32020 27 257</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.1511047035455704</v>
+        <v>0.2718035280704498</v>
       </c>
     </row>
     <row r="23">
@@ -1335,39 +1335,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1109833525350461</v>
+        <v>0.2353798010601447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01270961538461538</v>
+        <v>0.05573653846153846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9872903846153847</v>
+        <v>0.9442634615384615</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0656475820628763</v>
+        <v>0.007863104730499282</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06862695826561635</v>
+        <v>0.008633430776144013</v>
       </c>
       <c r="H23" t="n">
-        <v>0.940018315018315</v>
+        <v>0.8966901744229681</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9636680560155491</v>
+        <v>0.9204913834343996</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1215928481751662</v>
+        <v>0.01705411977248907</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>513124 6592 17 267</t>
+          <t>490764 28952 31 253</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.150368943810463</v>
+        <v>0.3330201804637909</v>
       </c>
     </row>
     <row r="24">
@@ -1375,39 +1375,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1542092127224001</v>
+        <v>0.2267975600866171</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004403846153846153</v>
+        <v>0.06828653846153847</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9955961538461537</v>
+        <v>0.9317134615384617</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.142062314374642</v>
+        <v>0.006906972109541895</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1605846667732414</v>
+        <v>0.007340277362443389</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8665725300340684</v>
+        <v>0.9287959229254775</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9311209334052074</v>
+        <v>0.9302561877768583</v>
       </c>
       <c r="J24" t="n">
-        <v>0.246853324737618</v>
+        <v>0.01453184399619894</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>517465 2251 39 245</t>
+          <t>484228 35488 21 263</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.1643097400665283</v>
+        <v>0.3699780404567719</v>
       </c>
     </row>
     <row r="25">
@@ -1415,39 +1415,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1612738370178984</v>
+        <v>0.325053803049601</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004146153846153846</v>
+        <v>0.003153846153846154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.995853846153846</v>
+        <v>0.9968461538461538</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1448204536198419</v>
+        <v>0.059719026375445</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1652454373787378</v>
+        <v>0.09420886632966244</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8547426932042316</v>
+        <v>0.5700526138279175</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9253377912159474</v>
+        <v>0.783572626640207</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2514118604032154</v>
+        <v>0.1554996805107831</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>517602 2114 42 242</t>
+          <t>518205 1511 129 155</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.1481171101331711</v>
+        <v>0.3814892470836639</v>
       </c>
     </row>
     <row r="26">
@@ -1455,39 +1455,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1613216644081359</v>
+        <v>0.3763690994909176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003915384615384616</v>
+        <v>0.002076923076923077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9960846153846152</v>
+        <v>0.9979230769230767</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1498859553388345</v>
+        <v>0.08510064586810968</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1710413698393706</v>
+        <v>0.1360273326781028</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8547426932042316</v>
+        <v>0.5633394551916818</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9254532198960248</v>
+        <v>0.7807576872881042</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2588165937084278</v>
+        <v>0.2091584187941635</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>517722 1994 42 242</t>
+          <t>518768 948 132 152</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.1497921496629715</v>
+        <v>0.2618830800056458</v>
       </c>
     </row>
     <row r="27">
@@ -1495,39 +1495,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.126471784682228</v>
+        <v>0.2371717803180218</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006788461538461539</v>
+        <v>0.04949038461538461</v>
       </c>
       <c r="D27" t="n">
-        <v>0.993211538461538</v>
+        <v>0.9505096153846153</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1084957369624583</v>
+        <v>0.008605884815998803</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1185517223191499</v>
+        <v>0.009579017874274219</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8868693272539426</v>
+        <v>0.8861919120016286</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9400698123099118</v>
+        <v>0.918370910571176</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1931834824886674</v>
+        <v>0.01889258175281669</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>516218 3498 32 252</t>
+          <t>494016 25700 35 249</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.1470297574996948</v>
+        <v>0.2524344623088837</v>
       </c>
     </row>
     <row r="28">
@@ -1535,39 +1535,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1542255475114171</v>
+        <v>0.2401054564576883</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00400576923076923</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9959942307692309</v>
+        <v>0.947</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1504263682601675</v>
+        <v>0.008100595755625715</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1699637410249203</v>
+        <v>0.008976184704335701</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8566657701273085</v>
+        <v>0.8891504918832855</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9263685926806386</v>
+        <v>0.9180934619379996</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2583960510604268</v>
+        <v>0.01772014052923177</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>517674 2042 41 243</t>
+          <t>492190 27526 34 250</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.1421520411968231</v>
+        <v>0.2762135565280914</v>
       </c>
     </row>
     <row r="29">
@@ -1575,39 +1575,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1227449763279695</v>
+        <v>0.223081331126965</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007253846153846154</v>
+        <v>0.05635769230769231</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9927461538461538</v>
+        <v>0.9436423076923077</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1058723171679019</v>
+        <v>0.007912799562744648</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1145053480018781</v>
+        <v>0.008615428793478607</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8942869096715251</v>
+        <v>0.9081443522739071</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9435439155052556</v>
+        <v>0.925905823749228</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1879456183791718</v>
+        <v>0.01702075073325828</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>515974 3742 30 254</t>
+          <t>490439 29277 29 255</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0.1466817408800125</v>
+        <v>0.2729042172431946</v>
       </c>
     </row>
     <row r="30">
@@ -1615,39 +1615,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1349024102808191</v>
+        <v>0.2060613288329198</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005378846153846154</v>
+        <v>0.06456153846153848</v>
       </c>
       <c r="D30" t="n">
-        <v>0.994621153846154</v>
+        <v>0.9354384615384614</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1254184796931881</v>
+        <v>0.007127447047697319</v>
       </c>
       <c r="G30" t="n">
-        <v>0.13978638778514</v>
+        <v>0.007660313434256462</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8787825422440807</v>
+        <v>0.9218362159657706</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9367344033933857</v>
+        <v>0.9286427302954963</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2214124610435171</v>
+        <v>0.01515771765426555</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>516954 2762 35 249</t>
+          <t>486168 33548 24 260</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.1447352766990662</v>
+        <v>0.2539555728435516</v>
       </c>
     </row>
     <row r="31">
@@ -1655,39 +1655,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1364268461385598</v>
+        <v>0.2125599017510047</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004919230769230769</v>
+        <v>0.06684615384615383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9950807692307693</v>
+        <v>0.9331538461538463</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1348442781678161</v>
+        <v>0.006892956913379296</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1504818182308479</v>
+        <v>0.007406132646079171</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8787825422440807</v>
+        <v>0.9218362159657706</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9369643027750273</v>
+        <v>0.9274998038982082</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2351457344344999</v>
+        <v>0.01465981455099326</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>517193 2523 35 249</t>
+          <t>484980 34736 24 260</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.144279956817627</v>
+        <v>0.2548082768917084</v>
       </c>
     </row>
     <row r="32">
@@ -1695,39 +1695,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1524432464144551</v>
+        <v>0.2442819610811197</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003994230769230769</v>
+        <v>0.03100576923076923</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9960057692307693</v>
+        <v>0.9689942307692309</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1502178716660888</v>
+        <v>0.01266043326045918</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1695230264609936</v>
+        <v>0.01459842786872987</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8555386920771535</v>
+        <v>0.8449805255473273</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9258108247138783</v>
+        <v>0.9070221869675842</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2579846185083969</v>
+        <v>0.02856015337965697</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>517680 2036 41 243</t>
+          <t>503638 16078 45 239</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0.1455131322145462</v>
+        <v>0.2981352508068085</v>
       </c>
     </row>
     <row r="33">
@@ -1735,39 +1735,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1199931876304058</v>
+        <v>0.2593058634262819</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007121153846153847</v>
+        <v>0.01918461538461539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9928788461538461</v>
+        <v>0.9808153846153846</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1049979043190434</v>
+        <v>0.01800171412444081</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1136554694222161</v>
+        <v>0.02193420235027941</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8942869096715251</v>
+        <v>0.7869693453195477</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9436102773361742</v>
+        <v>0.8839458044898112</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1870895129074462</v>
+        <v>0.04235000826234096</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>516043 3673 30 254</t>
+          <t>509801 9915 61 223</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0.1390527486801147</v>
+        <v>0.2116114944219589</v>
       </c>
     </row>
     <row r="34">
@@ -1775,39 +1775,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1564938029131064</v>
+        <v>0.2358011342585087</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003611538461538461</v>
+        <v>0.041425</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9963884615384614</v>
+        <v>0.9585749999999998</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1570329498863688</v>
+        <v>0.009498527502449497</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1792986627812036</v>
+        <v>0.01098887271765227</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8514788630173246</v>
+        <v>0.8468707293606079</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9239742513780989</v>
+        <v>0.902754843995074</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2694473265537939</v>
+        <v>0.02161369929583363</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>517881 1835 43 241</t>
+          <t>498220 21496 45 239</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.1405643224716187</v>
+        <v>0.2454230487346649</v>
       </c>
     </row>
     <row r="35">
@@ -1815,39 +1815,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1214218722083248</v>
+        <v>0.213216919451952</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006288461538461536</v>
+        <v>0.06635576923076925</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9937115384615386</v>
+        <v>0.9336442307692306</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11686642042663</v>
+        <v>0.006940725770635879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1264625914623315</v>
+        <v>0.007457228214441023</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8942869096715251</v>
+        <v>0.9218362159657706</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9440267967673712</v>
+        <v>0.9277451248033898</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2048495897327059</v>
+        <v>0.01475999781805379</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>516476 3240 30 254</t>
+          <t>485235 34481 24 260</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.1376825422048569</v>
+        <v>0.2774311602115631</v>
       </c>
     </row>
     <row r="36">
@@ -1855,39 +1855,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1710689709736751</v>
+        <v>0.214160422866161</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002701923076923077</v>
+        <v>0.06555</v>
       </c>
       <c r="D36" t="n">
-        <v>0.997298076923077</v>
+        <v>0.9344499999999999</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1908121575546611</v>
+        <v>0.007024322669356522</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2207427241428974</v>
+        <v>0.007547763461795286</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8446644898061901</v>
+        <v>0.9218362159657706</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9210249610046808</v>
+        <v>0.9281482293328475</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3171555144236142</v>
+        <v>0.0149373668776799</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>518357 1359 46 238</t>
+          <t>485654 34062 24 260</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.1431682556867599</v>
+        <v>0.233455166220665</v>
       </c>
     </row>
     <row r="37">
@@ -1895,39 +1895,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1476006323041824</v>
+        <v>0.2113311276412927</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003709615384615385</v>
+        <v>0.05727692307692309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9962903846153844</v>
+        <v>0.9427230769230769</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1611951247388293</v>
+        <v>0.007788968590625204</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1813888665456716</v>
+        <v>0.008479718843556054</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8637804503189118</v>
+        <v>0.9081443522739071</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9300721526269883</v>
+        <v>0.9254459576142354</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2731804315764061</v>
+        <v>0.01675567779896503</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>517826 1890 39 245</t>
+          <t>489961 29755 29 255</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.1502714157104492</v>
+        <v>0.254136323928833</v>
       </c>
     </row>
     <row r="38">
@@ -1935,39 +1935,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1161003296908278</v>
+        <v>0.2243508401398475</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007021153846153845</v>
+        <v>0.05915384615384615</v>
       </c>
       <c r="D38" t="n">
-        <v>0.992978846153846</v>
+        <v>0.9408461538461536</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.108524488156071</v>
+        <v>0.007681972498611559</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1167394895459666</v>
+        <v>0.008303288237324347</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8996149149995305</v>
+        <v>0.9157756099051646</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9463223861289394</v>
+        <v>0.9283197100381939</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1914240049112655</v>
+        <v>0.01641335066167407</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>516093 3623 28 256</t>
+          <t>488982 30734 26 258</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.136620506644249</v>
+        <v>0.2650749683380127</v>
       </c>
     </row>
     <row r="39">
@@ -1975,39 +1975,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1607833849982573</v>
+        <v>0.2124499856279446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002988461538461539</v>
+        <v>0.06238076923076923</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9970115384615386</v>
+        <v>0.9376192307692309</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1794248332957587</v>
+        <v>0.007283655096710409</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2076204609786155</v>
+        <v>0.007869589489039189</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8446644898061901</v>
+        <v>0.9157756099051646</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9208816379481417</v>
+        <v>0.9267053426029064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3008736775503992</v>
+        <v>0.01556579851434184</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>518208 1508 46 238</t>
+          <t>487304 32412 26 258</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.1378651559352875</v>
+        <v>0.2780124247074127</v>
       </c>
     </row>
     <row r="40">
@@ -2015,39 +2015,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1326761791984049</v>
+        <v>0.2547630835324526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004769230769230769</v>
+        <v>0.01945192307692307</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9952307692307693</v>
+        <v>0.9805480769230768</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1401520282192341</v>
+        <v>0.0189667669248781</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1552489535178325</v>
+        <v>0.02235144682768846</v>
       </c>
       <c r="H40" t="n">
-        <v>0.881987670449209</v>
+        <v>0.8072109963810369</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9386409328061956</v>
+        <v>0.8939252058812333</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2407942312608621</v>
+        <v>0.04316688182247645</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>517270 2446 34 250</t>
+          <t>509654 10062 53 231</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.1373140662908554</v>
+        <v>0.2097541987895966</v>
       </c>
     </row>
     <row r="41">
@@ -2055,39 +2055,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1101957426334803</v>
+        <v>0.216387231189471</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007813461538461538</v>
+        <v>0.06754423076923076</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9921865384615386</v>
+        <v>0.932455769230769</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.09964942793301274</v>
+        <v>0.006871762809283229</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1066765052424057</v>
+        <v>0.007360204011652071</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9119775523621677</v>
+        <v>0.9237592928888476</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9521054559526374</v>
+        <v>0.9281111551636964</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1771221954800178</v>
+        <v>0.01457004761452974</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>515679 4037 26 258</t>
+          <t>484616 35100 23 261</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.137227863073349</v>
+        <v>0.2194400727748871</v>
       </c>
     </row>
     <row r="42">
@@ -2095,39 +2095,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1139241604564282</v>
+        <v>0.2436701165368924</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006626923076923076</v>
+        <v>0.028575</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9933730769230771</v>
+        <v>0.971425</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1141053652241813</v>
+        <v>0.0137864509371602</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1228671736111707</v>
+        <v>0.01577779345112579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8996149149995305</v>
+        <v>0.8313760014164873</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9465195803092507</v>
+        <v>0.9014359593495608</v>
       </c>
       <c r="J42" t="n">
-        <v>0.199416616683362</v>
+        <v>0.03080714791875905</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>516298 3418 28 256</t>
+          <t>504902 14814 45 239</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.1436281651258469</v>
+        <v>0.3390491008758545</v>
       </c>
     </row>
     <row r="43">
@@ -2135,39 +2135,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1373899279592129</v>
+        <v>0.2860229714558675</v>
       </c>
       <c r="C43" t="n">
-        <v>0.004192307692307692</v>
+        <v>0.008661538461538462</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9958076923076923</v>
+        <v>0.9913384615384615</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1509321002681548</v>
+        <v>0.02948697219082421</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1680175045582318</v>
+        <v>0.04070374121508306</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8726188341572958</v>
+        <v>0.6746030650635914</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9342470261325777</v>
+        <v>0.8330607336074571</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2575029541776371</v>
+        <v>0.0756060844599268</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>517572 2144 36 248</t>
+          <t>515308 4408 96 188</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0.1342173516750336</v>
+        <v>0.292690634727478</v>
       </c>
     </row>
     <row r="44">
@@ -2175,39 +2175,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1396255560147648</v>
+        <v>0.2342603851396304</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003863461538461539</v>
+        <v>0.04031538461538461</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9961365384615384</v>
+        <v>0.9596846153846154</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1580901880862896</v>
+        <v>0.01036761768772981</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1765340724416974</v>
+        <v>0.01165374805923925</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8669855785240401</v>
+        <v>0.88140183028847</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9315968096993229</v>
+        <v>0.9205678142415032</v>
       </c>
       <c r="J44" t="n">
-        <v>0.268364572167361</v>
+        <v>0.02291335425165041</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>517745 1971 38 246</t>
+          <t>498789 20927 37 247</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.136921614408493</v>
+        <v>0.3202626705169678</v>
       </c>
     </row>
     <row r="45">
@@ -2215,39 +2215,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1546346127198866</v>
+        <v>0.2411018611433414</v>
       </c>
       <c r="C45" t="n">
-        <v>0.003184615384615385</v>
+        <v>0.02967884615384615</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9968153846153844</v>
+        <v>0.9703211538461539</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1756777331932738</v>
+        <v>0.0131989852789332</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1997641168528655</v>
+        <v>0.01514413609631484</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8580931551579325</v>
+        <v>0.8278794979199838</v>
       </c>
       <c r="I45" t="n">
-        <v>0.927494004491962</v>
+        <v>0.8991364561002199</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2942678918061991</v>
+        <v>0.02959368458430311</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>518102 1614 42 242</t>
+          <t>504329 15387 46 238</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.1437343657016754</v>
+        <v>0.2804740965366364</v>
       </c>
     </row>
     <row r="46">
@@ -2255,39 +2255,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1350660669760635</v>
+        <v>0.2139439195967638</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004228846153846154</v>
+        <v>0.05746730769230769</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9957711538461537</v>
+        <v>0.9425326923076922</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1497686781457559</v>
+        <v>0.007903880774565638</v>
       </c>
       <c r="G46" t="n">
-        <v>0.166534626259131</v>
+        <v>0.008544147020881113</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8781133396518013</v>
+        <v>0.9157756099051646</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9369750413274638</v>
+        <v>0.9291634390159551</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2558819533081426</v>
+        <v>0.01688387659002783</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>517552 2164 35 249</t>
+          <t>489859 29857 26 258</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0.1393895298242569</v>
+        <v>0.2834824919700623</v>
       </c>
     </row>
     <row r="47">
@@ -2295,39 +2295,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1795039859313804</v>
+        <v>0.2832865624760206</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002207692307692308</v>
+        <v>0.007680769230769232</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9977923076923078</v>
+        <v>0.9923192307692308</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2164572893200685</v>
+        <v>0.02779840627892375</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2515179991584331</v>
+        <v>0.04143315896916071</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8417059099245333</v>
+        <v>0.6103666267380842</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9197938429922575</v>
+        <v>0.8014533684857862</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3517754697086307</v>
+        <v>0.07623981266884026</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>518615 1101 47 237</t>
+          <t>515839 3877 117 167</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.1300888508558273</v>
+        <v>0.201455369591713</v>
       </c>
     </row>
     <row r="48">
@@ -2335,39 +2335,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1348889475115217</v>
+        <v>0.2138755009151422</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00418653846153846</v>
+        <v>0.04695384615384616</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9958134615384616</v>
+        <v>0.953046153846154</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1452028891959635</v>
+        <v>0.009035152793161748</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1620935056031026</v>
+        <v>0.01005244324738596</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8691223306607923</v>
+        <v>0.8765765273862439</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9325025988335114</v>
+        <v>0.9148331424087383</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2503881492838546</v>
+        <v>0.01981056261404219</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>517576 2140 37 247</t>
+          <t>495336 24380 36 248</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.1419516354799271</v>
+        <v>0.2363342195749283</v>
       </c>
     </row>
     <row r="49">
@@ -2375,39 +2375,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173509522771033</v>
+        <v>0.2192674797887985</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002328846153846154</v>
+        <v>0.05065961538461539</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9976711538461536</v>
+        <v>0.9493403846153844</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2067149579109336</v>
+        <v>0.008600871739455949</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2397563774611816</v>
+        <v>0.009475903393997367</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8446644898061901</v>
+        <v>0.9013299790627726</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9212115615171201</v>
+        <v>0.9253521252249123</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3391368976637629</v>
+        <v>0.01869567129495417</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>518551 1165 46 238</t>
+          <t>493405 26311 32 252</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.1368106156587601</v>
+        <v>0.2702786922454834</v>
       </c>
     </row>
     <row r="50">
@@ -2415,39 +2415,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1061783918681053</v>
+        <v>0.2024226397849046</v>
       </c>
       <c r="C50" t="n">
-        <v>0.007790384615384616</v>
+        <v>0.06219230769230769</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9922096153846157</v>
+        <v>0.9378076923076925</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09906966824919966</v>
+        <v>0.00735802158570962</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1051344594851072</v>
+        <v>0.007930774323268077</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9115196769042924</v>
+        <v>0.919272113401668</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9518851238959131</v>
+        <v>0.9285469276734269</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1745272020125252</v>
+        <v>0.01568610663477223</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>515688 4028 23 261</t>
+          <t>487401 32315 25 259</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0.1320498883724213</v>
+        <v>0.2588784396648407</v>
       </c>
     </row>
     <row r="51">
@@ -2455,39 +2455,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1046903754512851</v>
+        <v>0.2178505467107663</v>
       </c>
       <c r="C51" t="n">
-        <v>0.008144230769230766</v>
+        <v>0.04060192307692308</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9918557692307691</v>
+        <v>0.9593980769230769</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09821374319907596</v>
+        <v>0.01018832844582002</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1034429016413516</v>
+        <v>0.01147501968863228</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9240936414013338</v>
+        <v>0.859635135444852</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9579931965448907</v>
+        <v>0.9095430344485416</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1720764155784017</v>
+        <v>0.0225617514181339</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>515502 4214 21 263</t>
+          <t>498642 21074 39 245</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0.1325790733098984</v>
+        <v>0.2566271424293518</v>
       </c>
     </row>
     <row r="52">
@@ -2495,39 +2495,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1311104993980665</v>
+        <v>0.2013602443039417</v>
       </c>
       <c r="C52" t="n">
-        <v>0.004075</v>
+        <v>0.06305192307692306</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9959249999999998</v>
+        <v>0.9369480769230769</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1488366297272382</v>
+        <v>0.007251346103587863</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1660027735369817</v>
+        <v>0.007814059661765948</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8781133396518013</v>
+        <v>0.919272113401668</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9370519642474431</v>
+        <v>0.9281168604601544</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2548006639595787</v>
+        <v>0.01545802822894503</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>517632 2084 35 249</t>
+          <t>486954 32762 25 259</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.1318565011024475</v>
+        <v>0.2042621970176697</v>
       </c>
     </row>
     <row r="53">
@@ -2535,39 +2535,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1022052915336994</v>
+        <v>0.1998488662334589</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008503846153846155</v>
+        <v>0.06446538461538463</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9914961538461535</v>
+        <v>0.9355346153846154</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09725932025618757</v>
+        <v>0.007197806871412997</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1018363072562674</v>
+        <v>0.007704109660958455</v>
       </c>
       <c r="H53" t="n">
-        <v>0.927298769606462</v>
+        <v>0.9247947958474274</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9594149513115796</v>
+        <v>0.9301691650195514</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1700307396958344</v>
+        <v>0.01524406272509001</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>515314 4402 20 264</t>
+          <t>486217 33499 23 261</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.1370819658041</v>
+        <v>0.2675420045852661</v>
       </c>
     </row>
     <row r="54">
@@ -2575,39 +2575,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1441567928458636</v>
+        <v>0.2210790007733382</v>
       </c>
       <c r="C54" t="n">
-        <v>0.003513461538461538</v>
+        <v>0.03529038461538461</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9964865384615382</v>
+        <v>0.9647096153846155</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1603678305249595</v>
+        <v>0.0116075153801782</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1800934671437952</v>
+        <v>0.01306861668752898</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8669855785240401</v>
+        <v>0.844525245334962</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9317718415292907</v>
+        <v>0.9046472285940461</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2721507884122111</v>
+        <v>0.02562826642183597</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>517927 1789 38 246</t>
+          <t>501406 18310 41 243</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.1302174031734467</v>
+        <v>0.2763790786266327</v>
       </c>
     </row>
     <row r="55">
@@ -2615,39 +2615,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1252889618134269</v>
+        <v>0.6356306282015374</v>
       </c>
       <c r="C55" t="n">
-        <v>0.004436538461538462</v>
+        <v>0.0008307692307692306</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9955634615384615</v>
+        <v>0.9991692307692309</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1425676041803859</v>
+        <v>0.1935839506330392</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1572694311051217</v>
+        <v>0.3178498582102701</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8800364165748782</v>
+        <v>0.5583565838120493</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9378316976655463</v>
+        <v>0.7788915965573077</v>
       </c>
       <c r="J55" t="n">
-        <v>0.24367795755103</v>
+        <v>0.3830763969644435</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>517443 2273 34 250</t>
+          <t>519418 298 134 150</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0.1318504065275192</v>
+        <v>0.2859878242015839</v>
       </c>
     </row>
     <row r="56">
@@ -2655,39 +2655,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1365121682174504</v>
+        <v>0.195520032197237</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003653846153846154</v>
+        <v>0.0631076923076923</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9963461538461538</v>
+        <v>0.9368923076923075</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1633369543946013</v>
+        <v>0.007252131333253834</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1830945990726699</v>
+        <v>0.007815196677495237</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8724800840185457</v>
+        <v>0.919272113401668</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9344479384209972</v>
+        <v>0.9280889763784265</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2752575010871174</v>
+        <v>0.01546007834756046</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>517853 1863 37 247</t>
+          <t>486925 32791 25 259</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.1315111219882965</v>
+        <v>0.4001122415065765</v>
       </c>
     </row>
     <row r="57">
@@ -2695,39 +2695,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1258783904978862</v>
+        <v>0.2016177888099964</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004298076923076924</v>
+        <v>0.0640153846153846</v>
       </c>
       <c r="D57" t="n">
-        <v>0.995701923076923</v>
+        <v>0.9359846153846152</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1461561072650631</v>
+        <v>0.007147017756366104</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1614022005505301</v>
+        <v>0.007701394727664012</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8800364165748782</v>
+        <v>0.919272113401668</v>
       </c>
       <c r="I57" t="n">
-        <v>0.93790096134129</v>
+        <v>0.9276348742726052</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2490469108353721</v>
+        <v>0.01523743371561507</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>517515 2201 34 250</t>
+          <t>486453 33263 25 259</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>0.1313706338405609</v>
+        <v>0.2807843685150146</v>
       </c>
     </row>
     <row r="58">
@@ -2735,39 +2735,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1055907887191727</v>
+        <v>0.2181139230155028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.007869230769230769</v>
+        <v>0.04123653846153847</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9921307692307694</v>
+        <v>0.9587634615384615</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09906402500093255</v>
+        <v>0.01010946001114036</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1044248026805499</v>
+        <v>0.01133423274591091</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9240936414013338</v>
+        <v>0.8614666372763539</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9581307489779788</v>
+        <v>0.9101403310016726</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1739899029765283</v>
+        <v>0.02229057478022668</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>515645 4071 21 263</t>
+          <t>498311 21405 38 246</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.1343009173870087</v>
+        <v>0.2381796389818192</v>
       </c>
     </row>
     <row r="59">
@@ -2775,39 +2775,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1179405723053675</v>
+        <v>0.408613604063598</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005365384615384616</v>
+        <v>0.002013461538461539</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9946346153846152</v>
+        <v>0.9979865384615384</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.127123755265683</v>
+        <v>0.08935635844348082</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1376462814500553</v>
+        <v>0.1419133206281276</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8880644996029612</v>
+        <v>0.5651709570231837</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9413772798391593</v>
+        <v>0.7817042282215204</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2191767637529429</v>
+        <v>0.2158060433759458</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>516956 2760 30 254</t>
+          <t>518800 916 131 153</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0.1284517198801041</v>
+        <v>0.2966745793819427</v>
       </c>
     </row>
     <row r="60">
@@ -2815,39 +2815,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1337007630544786</v>
+        <v>0.2197837348167713</v>
       </c>
       <c r="C60" t="n">
-        <v>0.003605769230769232</v>
+        <v>0.06857692307692306</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9963942307692307</v>
+        <v>0.9314230769230767</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.164712653479448</v>
+        <v>0.006929065387704678</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1834802965562594</v>
+        <v>0.007339307239884877</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8758753729401504</v>
+        <v>0.9340438800965116</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9361686735637045</v>
+        <v>0.9327339428116479</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2771389344485478</v>
+        <v>0.01453056108933789</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>517877 1839 36 248</t>
+          <t>484076 35640 20 264</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.13050177693367</v>
+        <v>0.2378803789615631</v>
       </c>
     </row>
     <row r="61">
@@ -2855,39 +2855,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1250565692495841</v>
+        <v>0.226971804522551</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004434615384615385</v>
+        <v>0.02740576923076923</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9955653846153845</v>
+        <v>0.9725942307692308</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1423952880120981</v>
+        <v>0.01360185522349554</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1570696799095843</v>
+        <v>0.01599481716791011</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8821731687116304</v>
+        <v>0.8102099205338071</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9389000786920471</v>
+        <v>0.8914446029016337</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2436936908475794</v>
+        <v>0.03119743774788108</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>517443 2273 33 251</t>
+          <t>505517 14199 52 232</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0.1286968141794205</v>
+        <v>0.250741571187973</v>
       </c>
     </row>
     <row r="62">
@@ -2895,39 +2895,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1298683560453355</v>
+        <v>0.19623180020314</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004153846153846152</v>
+        <v>0.06100961538461537</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9958461538461538</v>
+        <v>0.9389903846153848</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1488025247423339</v>
+        <v>0.007401796381025004</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1647320850292909</v>
+        <v>0.008018290724027355</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8800364165748782</v>
+        <v>0.9137776079071626</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9379731038081199</v>
+        <v>0.9263932638030479</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2532394879603762</v>
+        <v>0.01585605159847114</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>517590 2126 34 250</t>
+          <t>488018 31698 27 257</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>0.1258566826581955</v>
+        <v>0.2135111093521118</v>
       </c>
     </row>
     <row r="63">
@@ -2935,39 +2935,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1188688761411378</v>
+        <v>0.1919739779371482</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005242307692307693</v>
+        <v>0.05892884615384616</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9947576923076924</v>
+        <v>0.9410711538461538</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1288850602615241</v>
+        <v>0.007625756909172525</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1395868361150196</v>
+        <v>0.008279497496227127</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8880644996029612</v>
+        <v>0.9116408557704105</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9414388199737558</v>
+        <v>0.9263668324492728</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2205992482621126</v>
+        <v>0.01636565719675722</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>517020 2696 30 254</t>
+          <t>489101 30615 28 256</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>0.1287921071052551</v>
+        <v>0.2933120131492615</v>
       </c>
     </row>
     <row r="64">
@@ -2975,39 +2975,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1117010039922137</v>
+        <v>0.3755576273856255</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00604423076923077</v>
+        <v>0.002811538461538462</v>
       </c>
       <c r="D64" t="n">
-        <v>0.993955769230769</v>
+        <v>0.9971884615384616</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1191759562032706</v>
+        <v>0.06592333313031579</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1278157103130879</v>
+        <v>0.1042056681861316</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8970555085939702</v>
+        <v>0.5686674605196871</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9455303295801939</v>
+        <v>0.783052264625712</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2054476968946317</v>
+        <v>0.1687786622831456</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>516600 3116 27 257</t>
+          <t>518384 1332 130 154</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.1296669691801071</v>
+        <v>0.213673859834671</v>
       </c>
     </row>
     <row r="65">
@@ -3015,39 +3015,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1159137504963348</v>
+        <v>0.192686748619263</v>
       </c>
       <c r="C65" t="n">
-        <v>0.005148076923076923</v>
+        <v>0.06587692307692307</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9948519230769232</v>
+        <v>0.9341230769230766</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1323096897792641</v>
+        <v>0.006991043798398508</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1424900793854864</v>
+        <v>0.007512744597989092</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8935590050974667</v>
+        <v>0.9218362159657706</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9442312707469629</v>
+        <v>0.9279846841779202</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2243761040180804</v>
+        <v>0.01486874247643255</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>517067 2649 28 256</t>
+          <t>485484 34232 24 260</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0.1349385678768158</v>
+        <v>0.417255312204361</v>
       </c>
     </row>
     <row r="66">
@@ -3055,39 +3055,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1220828470630715</v>
+        <v>0.3607007215659206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.004742307692307692</v>
+        <v>0.0023</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9952576923076921</v>
+        <v>0.9977000000000001</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1351703952686264</v>
+        <v>0.08079841084355784</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1487638618710539</v>
+        <v>0.1278063403872471</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8840046705431323</v>
+        <v>0.5686674605196871</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9396609331502831</v>
+        <v>0.7833081766996733</v>
       </c>
       <c r="J66" t="n">
-        <v>0.232370332720413</v>
+        <v>0.1986001330889446</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>517282 2434 32 252</t>
+          <t>518650 1066 130 154</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.1269612461328506</v>
+        <v>0.2198094129562378</v>
       </c>
     </row>
     <row r="67">
@@ -3095,39 +3095,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09713302323451409</v>
+        <v>0.211334104434802</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009978846153846154</v>
+        <v>0.03475</v>
       </c>
       <c r="D67" t="n">
-        <v>0.990021153846154</v>
+        <v>0.9652499999999999</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08075098126465655</v>
+        <v>0.01198899128616214</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08415026811635132</v>
+        <v>0.01339154343934042</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9321827744904668</v>
+        <v>0.8559721317818484</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9611171295834116</v>
+        <v>0.9106391025140732</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1438208885116358</v>
+        <v>0.02625303467215382</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>514545 5171 18 266</t>
+          <t>501685 18031 39 245</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0.1249315515160561</v>
+        <v>0.3126793205738068</v>
       </c>
     </row>
     <row r="68">
@@ -3135,39 +3135,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1351786279477752</v>
+        <v>0.3069462697379864</v>
       </c>
       <c r="C68" t="n">
-        <v>0.003511538461538461</v>
+        <v>0.002176923076923078</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9964884615384613</v>
+        <v>0.9978230769230773</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1652628111115418</v>
+        <v>0.08757580627721763</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1839321081036643</v>
+        <v>0.1369761051121219</v>
       </c>
       <c r="H68" t="n">
-        <v>0.874515621580399</v>
+        <v>0.5792382999366805</v>
       </c>
       <c r="I68" t="n">
-        <v>0.935535904263751</v>
+        <v>0.7886503558995733</v>
       </c>
       <c r="J68" t="n">
-        <v>0.277381493419218</v>
+        <v>0.2104239386719904</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>517926 1790 36 248</t>
+          <t>518709 1007 125 159</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.1291824281215668</v>
+        <v>0.2263986617326736</v>
       </c>
     </row>
     <row r="69">
@@ -3175,39 +3175,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1242498305554573</v>
+        <v>0.2480298842375095</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004403846153846153</v>
+        <v>0.01345961538461539</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9955961538461539</v>
+        <v>0.9865403846153846</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.14231011786621</v>
+        <v>0.02133056415627475</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1567796580951531</v>
+        <v>0.02832087256629641</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8840046705431323</v>
+        <v>0.7283029245832888</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9398302351182892</v>
+        <v>0.8574968239417706</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2429843807536586</v>
+        <v>0.05396286721115489</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>517458 2258 32 252</t>
+          <t>512799 6917 82 202</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.1305964142084122</v>
+        <v>0.2850256860256195</v>
       </c>
     </row>
     <row r="70">
@@ -3215,39 +3215,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1063522874162747</v>
+        <v>0.1992025017165221</v>
       </c>
       <c r="C70" t="n">
-        <v>0.006921153846153844</v>
+        <v>0.03504423076923077</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9930788461538462</v>
+        <v>0.9649557692307693</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1091620896077798</v>
+        <v>0.01213079473959028</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1154191701454199</v>
+        <v>0.01344228599267428</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9203132337747724</v>
+        <v>0.873646124455841</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9567157149233905</v>
+        <v>0.9193260211063274</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1882078708484907</v>
+        <v>0.02635897179878643</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>516139 3577 22 262</t>
+          <t>501529 18187 36 248</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.1275479942560196</v>
+        <v>0.308447003364563</v>
       </c>
     </row>
     <row r="71">
@@ -3255,39 +3255,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1717539603392092</v>
+        <v>0.185572551133541</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001975</v>
+        <v>0.06565000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9980249999999999</v>
+        <v>0.93435</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2343975113249127</v>
+        <v>0.007073895847090892</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2719401677331721</v>
+        <v>0.007570411811587871</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8468012419429424</v>
+        <v>0.9247947958474274</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9224559589646352</v>
+        <v>0.9295765362329743</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3731827296081853</v>
+        <v>0.01498223485779503</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>518734 982 45 239</t>
+          <t>485601 34115 23 261</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.1255713701248169</v>
+        <v>0.3636440634727478</v>
       </c>
     </row>
     <row r="72">
@@ -3295,39 +3295,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1177393136402735</v>
+        <v>0.2070697832566041</v>
       </c>
       <c r="C72" t="n">
-        <v>0.005217307692307693</v>
+        <v>0.0676826923076923</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9947826923076922</v>
+        <v>0.9323173076923078</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1270252830682126</v>
+        <v>0.007014041180702766</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1370207260942884</v>
+        <v>0.007429798086250873</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8935590050974667</v>
+        <v>0.9340438800965116</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9441966256750991</v>
+        <v>0.9331812866615444</v>
       </c>
       <c r="J72" t="n">
-        <v>0.217687434877593</v>
+        <v>0.01470820526676865</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>517031 2685 28 256</t>
+          <t>484541 35175 20 264</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.1276375353336334</v>
+        <v>0.2585737109184265</v>
       </c>
     </row>
     <row r="73">
@@ -3335,39 +3335,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1914406113971311</v>
+        <v>0.4772263326180669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001446153846153846</v>
+        <v>0.002151923076923077</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9985538461538461</v>
+        <v>0.9978480769230769</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2816408584430172</v>
+        <v>0.08281119539067999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3332870498009705</v>
+        <v>0.1320973745666093</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8230269393224858</v>
+        <v>0.5668359586881853</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9108381469484527</v>
+        <v>0.7824674597483445</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4290588740154656</v>
+        <v>0.2045466530404188</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>519014 702 50 234</t>
+          <t>518728 988 131 153</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>0.1197722926735878</v>
+        <v>0.2243103981018066</v>
       </c>
     </row>
     <row r="74">
@@ -3375,39 +3375,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1663167437251944</v>
+        <v>0.2484083781735255</v>
       </c>
       <c r="C74" t="n">
-        <v>0.002078846153846154</v>
+        <v>0.008088461538461537</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9979211538461539</v>
+        <v>0.9919115384615382</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2253693485291653</v>
+        <v>0.0392384914132706</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2605562728712635</v>
+        <v>0.04915505531563177</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8518378719795725</v>
+        <v>0.7631106382371565</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9249203800011762</v>
+        <v>0.87757427654357</v>
       </c>
       <c r="J74" t="n">
-        <v>0.3612571290829829</v>
+        <v>0.09091471208956259</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>518678 1038 43 241</t>
+          <t>515578 4138 68 216</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.1251809149980545</v>
+        <v>0.3241835832595825</v>
       </c>
     </row>
     <row r="75">
@@ -3415,39 +3415,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1285849578248767</v>
+        <v>0.1812304650934843</v>
       </c>
       <c r="C75" t="n">
-        <v>0.00393076923076923</v>
+        <v>0.0616076923076923</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9960692307692305</v>
+        <v>0.9383923076923075</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1559322587057711</v>
+        <v>0.007539435297417164</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1721799177269299</v>
+        <v>0.008072575381857587</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8840046705431323</v>
+        <v>0.9247947958474274</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9400668571324639</v>
+        <v>0.9315988261851316</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2612998686263157</v>
+        <v>0.01596472517507649</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>517704 2012 32 252</t>
+          <t>487703 32013 23 261</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.1229438334703445</v>
+        <v>0.265459269285202</v>
       </c>
     </row>
     <row r="76">
@@ -3455,39 +3455,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1222812348905091</v>
+        <v>0.1796221260267954</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004473076923076922</v>
+        <v>0.05898076923076924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9955269230769231</v>
+        <v>0.9410192307692308</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1443033575093664</v>
+        <v>0.00770617162664611</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1580412332847844</v>
+        <v>0.008332523621495733</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8888886754271371</v>
+        <v>0.9165248606544153</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9422356849073787</v>
+        <v>0.9287809215953615</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2442272916807673</v>
+        <v>0.01647070499973767</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>517420 2296 30 254</t>
+          <t>489072 30644 26 258</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.1245790272951126</v>
+        <v>0.2854308784008026</v>
       </c>
     </row>
     <row r="77">
@@ -3495,39 +3495,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1136870882473886</v>
+        <v>0.2382698584921085</v>
       </c>
       <c r="C77" t="n">
-        <v>0.006009615384615385</v>
+        <v>0.007894230769230771</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9939903846153848</v>
+        <v>0.9921057692307694</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1182671117550664</v>
+        <v>0.04191958115425619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1265987515256939</v>
+        <v>0.05133281448259749</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8965175849791235</v>
+        <v>0.7806243745008926</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9452786359052781</v>
+        <v>0.8864235030287677</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2023237195554644</v>
+        <v>0.09478712702862675</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>516618 3098 27 257</t>
+          <t>515674 4042 63 221</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.1201090738177299</v>
+        <v>0.2225436568260193</v>
       </c>
     </row>
     <row r="78">
@@ -3535,39 +3535,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1616255807547042</v>
+        <v>0.2022424186938084</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0022</v>
+        <v>0.02359807692307693</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9977999999999998</v>
+        <v>0.9764019230769231</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2227508471068598</v>
+        <v>0.01681491624812787</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2561149489610287</v>
+        <v>0.01929381475006496</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8593752064399839</v>
+        <v>0.843428692315332</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9286274925624449</v>
+        <v>0.9099502285688048</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3577619148560937</v>
+        <v>0.03748688466032889</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>518614 1102 42 242</t>
+          <t>507488 12228 43 241</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.1261478364467621</v>
+        <v>0.2232287675142288</v>
       </c>
     </row>
     <row r="79">
@@ -3575,39 +3575,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1094712760800926</v>
+        <v>0.3843261064388431</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005501923076923076</v>
+        <v>0.002078846153846154</v>
       </c>
       <c r="D79" t="n">
-        <v>0.994498076923077</v>
+        <v>0.9979211538461537</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1263024405988138</v>
+        <v>0.08618390335602058</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1349463310832746</v>
+        <v>0.1375704583275074</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9021508406123792</v>
+        <v>0.5668359586881853</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9483472897896552</v>
+        <v>0.7825040217860766</v>
       </c>
       <c r="J79" t="n">
-        <v>0.214155284996482</v>
+        <v>0.2106242617441148</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>516880 2836 25 259</t>
+          <t>518766 950 131 153</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.122742660343647</v>
+        <v>0.2301349639892578</v>
       </c>
     </row>
     <row r="80">
@@ -3615,39 +3615,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1052762193318743</v>
+        <v>0.1771109078366023</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00699423076923077</v>
+        <v>0.04762115384615385</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9930057692307694</v>
+        <v>0.9523788461538463</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10803051437941</v>
+        <v>0.00937541355184005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1144598952319117</v>
+        <v>0.0101883595615821</v>
       </c>
       <c r="H80" t="n">
-        <v>0.913902977364516</v>
+        <v>0.902025471155026</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9534750082630202</v>
+        <v>0.9272170516196426</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1867372924566624</v>
+        <v>0.02008288865605878</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>516102 3614 23 261</t>
+          <t>494982 24734 29 255</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.1226286664605141</v>
+        <v>0.2038311958312988</v>
       </c>
     </row>
     <row r="81">
@@ -3655,39 +3655,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09999060573486182</v>
+        <v>0.2528179379609915</v>
       </c>
       <c r="C81" t="n">
-        <v>0.008175</v>
+        <v>0.006517307692307693</v>
       </c>
       <c r="D81" t="n">
-        <v>0.991825</v>
+        <v>0.9934826923076924</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09738381963186703</v>
+        <v>0.04019583827113205</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1023075428185918</v>
+        <v>0.05520589493653787</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9262656147271533</v>
+        <v>0.678926092463542</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9590627684369927</v>
+        <v>0.836294003890528</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1688504433241366</v>
+        <v>0.1000118798401323</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>515485 4231 20 264</t>
+          <t>516422 3294 95 189</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.1238098219037056</v>
+        <v>0.2004181146621704</v>
       </c>
     </row>
     <row r="82">
@@ -3695,39 +3695,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1076259260925536</v>
+        <v>0.4104817250313667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005809615384615385</v>
+        <v>0.0005961538461538461</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9941903846153846</v>
+        <v>0.9994038461538464</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1225049589497314</v>
+        <v>0.2644297110816998</v>
       </c>
       <c r="G82" t="n">
-        <v>0.130617461943044</v>
+        <v>0.4303367823729815</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9117662252277637</v>
+        <v>0.5600215854770509</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9530001215915387</v>
+        <v>0.7798414703664018</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2087544037974728</v>
+        <v>0.4609966890679561</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>516719 2997 24 260</t>
+          <t>519540 176 134 150</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.1239872202277184</v>
+        <v>0.4176366329193115</v>
       </c>
     </row>
     <row r="83">
@@ -3735,39 +3735,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1414113520429685</v>
+        <v>0.2699459880017318</v>
       </c>
       <c r="C83" t="n">
-        <v>0.002824999999999999</v>
+        <v>0.002971153846153846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9971749999999999</v>
+        <v>0.9970288461538463</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1930446859285257</v>
+        <v>0.06382651986959663</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2167789569527755</v>
+        <v>0.09931093540440002</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8726841197488971</v>
+        <v>0.5813214731736999</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9349645238621711</v>
+        <v>0.7892974901461205</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3156969719717896</v>
+        <v>0.163251622001753</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>518284 1432 37 247</t>
+          <t>518299 1417 128 156</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.1215206980705261</v>
+        <v>0.2640499770641327</v>
       </c>
     </row>
     <row r="84">
@@ -3775,39 +3775,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09230383922560857</v>
+        <v>0.2401798387559561</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01213269230769231</v>
+        <v>0.006948076923076923</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9878673076923078</v>
+        <v>0.993051923076923</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.06985501470559335</v>
+        <v>0.02781269428714658</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07197440520790056</v>
+        <v>0.04314557170139265</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9464356156663848</v>
+        <v>0.5950577369099637</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9671623223056636</v>
+        <v>0.7941751021955038</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1247628201101595</v>
+        <v>0.07883653191336351</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>513421 6295 14 270</t>
+          <t>516230 3486 127 157</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.1218000426888466</v>
+        <v>0.2522797882556915</v>
       </c>
     </row>
     <row r="85">
@@ -3815,39 +3815,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1335448009463457</v>
+        <v>0.250921068713069</v>
       </c>
       <c r="C85" t="n">
-        <v>0.003505769230769231</v>
+        <v>0.003180769230769231</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9964942307692307</v>
+        <v>0.996819230769231</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1685921124520367</v>
+        <v>0.05746659021254043</v>
       </c>
       <c r="G85" t="n">
-        <v>0.187572383558064</v>
+        <v>0.09008626342002869</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8780121250769024</v>
+        <v>0.5608491570283068</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9372860703321668</v>
+        <v>0.7789612773682648</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2812751755198564</v>
+        <v>0.1499524897348032</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>517928 1788 35 249</t>
+          <t>518195 1521 133 151</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0.1320091485977173</v>
+        <v>0.7117246389389038</v>
       </c>
     </row>
     <row r="86">
@@ -3855,39 +3855,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1030680646833319</v>
+        <v>0.2625296915379854</v>
       </c>
       <c r="C86" t="n">
-        <v>0.007367307692307692</v>
+        <v>0.05033461538461538</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9926326923076924</v>
+        <v>0.9496653846153844</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1057254208279569</v>
+        <v>0.00531822102265225</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1120123884336099</v>
+        <v>0.007271970406635844</v>
       </c>
       <c r="H86" t="n">
-        <v>0.913902977364516</v>
+        <v>0.6972311314416578</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9532884066944488</v>
+        <v>0.8235239295734323</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1828757522153343</v>
+        <v>0.01434812057119974</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>515908 3808 23 261</t>
+          <t>493635 26081 93 191</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.121051974594593</v>
+        <v>0.3648680448532104</v>
       </c>
     </row>
     <row r="87">
@@ -3895,39 +3895,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09860194309686239</v>
+        <v>0.2374106148401132</v>
       </c>
       <c r="C87" t="n">
-        <v>0.008257692307692308</v>
+        <v>0.00591153846153846</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9917423076923076</v>
+        <v>0.9940884615384615</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.09530062883842141</v>
+        <v>0.03293502961373704</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1004088920390599</v>
+        <v>0.05114161922796231</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9198553583168968</v>
+        <v>0.585442352294579</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9558172362317996</v>
+        <v>0.7898869401006697</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1662748712746985</v>
+        <v>0.09181796962396234</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>515443 4273 21 263</t>
+          <t>516770 2946 128 156</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.1218124032020569</v>
+        <v>0.2945604622364044</v>
       </c>
     </row>
     <row r="88">
@@ -3935,39 +3935,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1026211434330505</v>
+        <v>0.2555570374601163</v>
       </c>
       <c r="C88" t="n">
-        <v>0.006992307692307695</v>
+        <v>0.001878846153846153</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9930076923076923</v>
+        <v>0.9981211538461537</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1061957617405559</v>
+        <v>0.09626240397530551</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1124176274306764</v>
+        <v>0.1524015119778543</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9171081055696442</v>
+        <v>0.565044961224111</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9550775250586647</v>
+        <v>0.7817104966917762</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1834113943597932</v>
+        <v>0.2277784370572284</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>516102 3614 22 262</t>
+          <t>518872 844 133 151</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0.1166637912392616</v>
+        <v>0.3766776025295258</v>
       </c>
     </row>
     <row r="89">
@@ -3975,39 +3975,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1073771756715499</v>
+        <v>0.2364445345906111</v>
       </c>
       <c r="C89" t="n">
-        <v>0.006046153846153845</v>
+        <v>0.01051923076923077</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9939538461538461</v>
+        <v>0.9894807692307693</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1172025250829064</v>
+        <v>0.01933497184642801</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1250723626351237</v>
+        <v>0.029337010122882</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9117662252277637</v>
+        <v>0.6026889945412213</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9528817883285634</v>
+        <v>0.7962012610031296</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2012481755327717</v>
+        <v>0.05517535253051842</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>516596 3120 24 260</t>
+          <t>514370 5346 124 160</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>0.1250623464584351</v>
+        <v>0.3224713504314423</v>
       </c>
     </row>
     <row r="90">
@@ -4015,39 +4015,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1348928928805085</v>
+        <v>0.2410503446769256</v>
       </c>
       <c r="C90" t="n">
-        <v>0.003205769230769231</v>
+        <v>0.001759615384615384</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9967942307692308</v>
+        <v>0.9982403846153842</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1759472674975534</v>
+        <v>0.1048822020638071</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1960904810381923</v>
+        <v>0.1637428713074906</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8780121250769024</v>
+        <v>0.5758269676791944</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9374361096253729</v>
+        <v>0.7871573092779358</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2906838725266248</v>
+        <v>0.2415092335325393</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>518084 1632 35 249</t>
+          <t>518930 786 129 155</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>0.12116589397192</v>
+        <v>0.2046047151088715</v>
       </c>
     </row>
     <row r="91">
@@ -4055,39 +4055,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1426981548563792</v>
+        <v>0.251601597150931</v>
       </c>
       <c r="C91" t="n">
-        <v>0.002848076923076923</v>
+        <v>0.001673076923076923</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9971519230769232</v>
+        <v>0.9983269230769231</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1964748798533842</v>
+        <v>0.1040837058621444</v>
       </c>
       <c r="G91" t="n">
-        <v>0.220410797880328</v>
+        <v>0.1668881107797575</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8743491214138988</v>
+        <v>0.5668359586881853</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9357854819055625</v>
+        <v>0.7827070127216723</v>
       </c>
       <c r="J91" t="n">
-        <v>0.318854411151465</v>
+        <v>0.2450594466644961</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>518272 1444 37 247</t>
+          <t>518977 739 131 153</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.1204344779253006</v>
+        <v>0.3974355161190033</v>
       </c>
     </row>
     <row r="92">
@@ -4095,39 +4095,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1017034607581221</v>
+        <v>0.2025417891832498</v>
       </c>
       <c r="C92" t="n">
-        <v>0.007392307692307692</v>
+        <v>0.0657173076923077</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9926076923076924</v>
+        <v>0.9342826923076923</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1024835668936269</v>
+        <v>0.007068094767056601</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1087604960356965</v>
+        <v>0.007562868399827354</v>
       </c>
       <c r="H92" t="n">
-        <v>0.913902977364516</v>
+        <v>0.9247947958474274</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9532758339324509</v>
+        <v>0.9295428600637189</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1776144307797004</v>
+        <v>0.01496743861721637</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>515895 3821 23 261</t>
+          <t>485566 34150 23 261</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.1231598109006882</v>
+        <v>0.2525002062320709</v>
       </c>
     </row>
     <row r="93">
@@ -4135,39 +4135,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1072439505503728</v>
+        <v>0.2784788783353109</v>
       </c>
       <c r="C93" t="n">
-        <v>0.006115384615384615</v>
+        <v>0.003240384615384615</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9938846153846155</v>
+        <v>0.9967596153846153</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.119286494595814</v>
+        <v>0.05927668918940187</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1273009830778366</v>
+        <v>0.09245366914210405</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9117662252277637</v>
+        <v>0.5758269676791944</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9528471497554131</v>
+        <v>0.786416518841987</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2021258972442111</v>
+        <v>0.153250135250151</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>516560 3156 24 260</t>
+          <t>518160 1556 129 155</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0.1239685490727425</v>
+        <v>0.3602415025234222</v>
       </c>
     </row>
     <row r="94">
@@ -4175,39 +4175,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1453641943920117</v>
+        <v>0.2695003924174951</v>
       </c>
       <c r="C94" t="n">
-        <v>0.002628846153846154</v>
+        <v>0.0005826923076923077</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9973711538461539</v>
+        <v>0.9994173076923077</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2007881444479421</v>
+        <v>0.2625804492679553</v>
       </c>
       <c r="G94" t="n">
-        <v>0.227261617776801</v>
+        <v>0.4487142299895336</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8707610428258202</v>
+        <v>0.5546935801490457</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9341020366973816</v>
+        <v>0.7771861232307268</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3265810422698833</v>
+        <v>0.4680108607687947</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>518387 1329 38 246</t>
+          <t>519549 167 136 148</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>0.1242530569434166</v>
+        <v>0.2282662391662598</v>
       </c>
     </row>
     <row r="95">
@@ -4215,39 +4215,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1266485648587919</v>
+        <v>0.179570301507528</v>
       </c>
       <c r="C95" t="n">
-        <v>0.003559615384615385</v>
+        <v>0.05870192307692308</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9964403846153846</v>
+        <v>0.9412980769230769</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1677393210414184</v>
+        <v>0.007916449128144596</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1840770037388879</v>
+        <v>0.008469416045289762</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8917483888131662</v>
+        <v>0.9277251987778303</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9441214435334496</v>
+        <v>0.9345177061935908</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2759380797891688</v>
+        <v>0.01674084081596654</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>517894 1822 29 255</t>
+          <t>489214 30502 23 261</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0.1257291287183762</v>
+        <v>0.2119807302951813</v>
       </c>
     </row>
     <row r="96">
@@ -4255,39 +4255,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1201989820871789</v>
+        <v>0.1845023050331152</v>
       </c>
       <c r="C96" t="n">
-        <v>0.004111538461538463</v>
+        <v>0.03712115384615385</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9958884615384617</v>
+        <v>0.9628788461538462</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1535832635233304</v>
+        <v>0.01170578282593958</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1669834399399349</v>
+        <v>0.01287934438299825</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8967312601927987</v>
+        <v>0.8962748115582124</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9463348890689468</v>
+        <v>0.9295974704788921</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2557357110753068</v>
+        <v>0.02528710152913968</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>517605 2111 27 257</t>
+          <t>500445 19271 32 252</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>0.1199158579111099</v>
+        <v>0.2135636359453201</v>
       </c>
     </row>
     <row r="97">
@@ -4295,39 +4295,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1229978268249677</v>
+        <v>0.1830192503447716</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00379423076923077</v>
+        <v>0.03288076923076923</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9962057692307693</v>
+        <v>0.967119230769231</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1622870735862687</v>
+        <v>0.01308427296641057</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1767664033314983</v>
+        <v>0.01441481322087195</v>
       </c>
       <c r="H97" t="n">
-        <v>0.894706968694823</v>
+        <v>0.8811649214483223</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9454824196521631</v>
+        <v>0.9241658087568612</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2679367780130673</v>
+        <v>0.02823236395044323</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>517771 1945 28 256</t>
+          <t>502652 17064 34 250</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0.1192252114415169</v>
+        <v>0.1714702099561691</v>
       </c>
     </row>
     <row r="98">
@@ -4335,39 +4335,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1231080110972891</v>
+        <v>0.3052902832770577</v>
       </c>
       <c r="C98" t="n">
-        <v>0.004151923076923077</v>
+        <v>0.004190384615384616</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9958480769230766</v>
+        <v>0.9958096153846157</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1509938704292968</v>
+        <v>0.04903340311054682</v>
       </c>
       <c r="G98" t="n">
-        <v>0.164693574420276</v>
+        <v>0.0742604791545331</v>
       </c>
       <c r="H98" t="n">
-        <v>0.894706968694823</v>
+        <v>0.6038199682683488</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9453035002349482</v>
+        <v>0.7999300479249596</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2525354512880771</v>
+        <v>0.1283086587078569</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>517585 2131 28 256</t>
+          <t>517658 2058 121 163</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.1259205192327499</v>
+        <v>0.2172048836946487</v>
       </c>
     </row>
     <row r="99">
@@ -4375,39 +4375,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1503215138442241</v>
+        <v>0.2420414263525834</v>
       </c>
       <c r="C99" t="n">
-        <v>0.002288461538461539</v>
+        <v>0.001851923076923077</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9977115384615385</v>
+        <v>0.9981480769230769</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.219111268531304</v>
+        <v>0.09668570444261751</v>
       </c>
       <c r="G99" t="n">
-        <v>0.249565880701149</v>
+        <v>0.1545336508503568</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8652665373313148</v>
+        <v>0.5748663897955395</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9315260097628096</v>
+        <v>0.7866317985811496</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3505153722414472</v>
+        <v>0.231310795966622</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>518565 1151 39 245</t>
+          <t>518883 833 130 154</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>0.1183334514498711</v>
+        <v>0.2437405437231064</v>
       </c>
     </row>
     <row r="100">
@@ -4415,39 +4415,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1510345754930033</v>
+        <v>0.344930374994874</v>
       </c>
       <c r="C100" t="n">
-        <v>0.002480769230769231</v>
+        <v>0.001336538461538461</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9975192307692311</v>
+        <v>0.9986634615384615</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2047954365928805</v>
+        <v>0.1284868747754166</v>
       </c>
       <c r="G100" t="n">
-        <v>0.2335657334095493</v>
+        <v>0.206210876500571</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8634350354998129</v>
+        <v>0.5668359586881853</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9305150122224208</v>
+        <v>0.7828753774076451</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3335515459382862</v>
+        <v>0.2858705125585393</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>518466 1250 40 244</t>
+          <t>519152 564 131 153</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.118830494582653</v>
+        <v>0.2605542540550232</v>
       </c>
     </row>
     <row r="101">
@@ -4455,39 +4455,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1260361769953026</v>
+        <v>0.1797280090932663</v>
       </c>
       <c r="C101" t="n">
-        <v>0.003478846153846154</v>
+        <v>0.04313461538461539</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9965211538461539</v>
+        <v>0.9568653846153846</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.170335412892392</v>
+        <v>0.01049346236633855</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1877521047058758</v>
+        <v>0.01136571424309711</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8896116366764141</v>
+        <v>0.9157756099051646</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9430944086555691</v>
+        <v>0.9363337193991867</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2804651867531174</v>
+        <v>0.02237121153097186</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>517937 1779 30 254</t>
+          <t>497312 22404 26 258</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>0.122992567718029</v>
+        <v>0.2384150177240372</v>
       </c>
     </row>
     <row r="102">
@@ -4495,39 +4495,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1462850183821642</v>
+        <v>0.1757939452162156</v>
       </c>
       <c r="C102" t="n">
-        <v>0.002430769230769231</v>
+        <v>0.06455192307692306</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9975692307692309</v>
+        <v>0.9354480769230769</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2076634316362028</v>
+        <v>0.007244132096472509</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2364649900788337</v>
+        <v>0.007725890393762155</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8689295409943184</v>
+        <v>0.9302893013419329</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9332863302332342</v>
+        <v>0.9328721651511056</v>
       </c>
       <c r="J102" t="n">
-        <v>0.337559402642114</v>
+        <v>0.01528768855766915</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>518491 1225 39 245</t>
+          <t>486171 33545 22 262</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0.1231678277254105</v>
+        <v>0.1974423229694366</v>
       </c>
     </row>
     <row r="103">
@@ -4535,39 +4535,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09978025327794827</v>
+        <v>0.1657231547511541</v>
       </c>
       <c r="C103" t="n">
-        <v>0.006626923076923076</v>
+        <v>0.04551730769230769</v>
       </c>
       <c r="D103" t="n">
-        <v>0.993373076923077</v>
+        <v>0.954482692307692</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1107770602676707</v>
+        <v>0.01003180009809104</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1171982586042813</v>
+        <v>0.01082680820142165</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9198553583168968</v>
+        <v>0.9220193661489208</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9566329669208896</v>
+        <v>0.9382626495698244</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1912694440115721</v>
+        <v>0.02132833845044175</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>516291 3425 21 263</t>
+          <t>496072 23644 25 259</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>0.1224030628800392</v>
+        <v>0.2031522840261459</v>
       </c>
     </row>
     <row r="104">
@@ -4575,39 +4575,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1746961341167872</v>
+        <v>0.2503604100873837</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001590384615384615</v>
+        <v>0.0009923076923076923</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9984096153846154</v>
+        <v>0.9990076923076923</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2778505866292455</v>
+        <v>0.1638094699086984</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3246399820736703</v>
+        <v>0.2674071721690051</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8529649500297274</v>
+        <v>0.5614735326526824</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9257282572679896</v>
+        <v>0.7803682917073238</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4193872562393147</v>
+        <v>0.3433553246694689</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>518932 784 43 241</t>
+          <t>519333 383 133 151</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0.1205475404858589</v>
+        <v>0.1890913546085358</v>
       </c>
     </row>
     <row r="105">
@@ -4615,39 +4615,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1191414354297404</v>
+        <v>0.2487069203589971</v>
       </c>
       <c r="C105" t="n">
-        <v>0.003849999999999999</v>
+        <v>0.001661538461538461</v>
       </c>
       <c r="D105" t="n">
-        <v>0.99615</v>
+        <v>0.9983384615384614</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1595776268597046</v>
+        <v>0.1020390492984817</v>
       </c>
       <c r="G105" t="n">
-        <v>0.174403635959397</v>
+        <v>0.1658710661694001</v>
       </c>
       <c r="H105" t="n">
-        <v>0.894706968694823</v>
+        <v>0.5614735326526824</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9454545218561871</v>
+        <v>0.7800334963903984</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2644491347925934</v>
+        <v>0.2427914825501247</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>517742 1974 28 256</t>
+          <t>518985 731 133 151</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>0.1214690506458282</v>
+        <v>0.2836169898509979</v>
       </c>
     </row>
     <row r="106">
@@ -4655,39 +4655,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1000108796959886</v>
+        <v>0.2483743747266439</v>
       </c>
       <c r="C106" t="n">
-        <v>0.006651923076923077</v>
+        <v>0.001428846153846154</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9933480769230769</v>
+        <v>0.9985711538461537</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1089639375142695</v>
+        <v>0.1179646625729699</v>
       </c>
       <c r="G106" t="n">
-        <v>0.115552504879734</v>
+        <v>0.1923611424647036</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9198553583168968</v>
+        <v>0.5614735326526824</v>
       </c>
       <c r="I106" t="n">
-        <v>0.956620425054302</v>
+        <v>0.7801499079767603</v>
       </c>
       <c r="J106" t="n">
-        <v>0.188222707491926</v>
+        <v>0.2708119380629419</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>516278 3438 21 263</t>
+          <t>519106 610 133 151</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>0.1174457520246506</v>
+        <v>0.2578099370002747</v>
       </c>
     </row>
     <row r="107">
@@ -4695,39 +4695,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1808363134220529</v>
+        <v>0.2072664679816136</v>
       </c>
       <c r="C107" t="n">
-        <v>0.001417307692307693</v>
+        <v>0.03446730769230769</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9985826923076924</v>
+        <v>0.9655326923076922</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.293089863870649</v>
+        <v>0.01241157291772233</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3433042578690424</v>
+        <v>0.01376155974661905</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8500063701480707</v>
+        <v>0.8883286641383807</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9243365155339522</v>
+        <v>0.9269529516436694</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4387006625176379</v>
+        <v>0.02698604519262511</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>519023 693 44 240</t>
+          <t>501826 17890 33 251</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>0.1096883416175842</v>
+        <v>0.2980883121490479</v>
       </c>
     </row>
     <row r="108">
@@ -4735,39 +4735,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1344070156248143</v>
+        <v>0.268586865411355</v>
       </c>
       <c r="C108" t="n">
-        <v>0.002846153846153846</v>
+        <v>0.004042307692307691</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9971538461538461</v>
+        <v>0.9959576923076923</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1888057485327256</v>
+        <v>0.05319947218017339</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2111971886770668</v>
+        <v>0.08012820566631576</v>
       </c>
       <c r="H108" t="n">
-        <v>0.8783173753821528</v>
+        <v>0.6163119971571388</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9377686107787281</v>
+        <v>0.8062443872745806</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3099246483111938</v>
+        <v>0.1369942298248165</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>518271 1445 35 249</t>
+          <t>517729 1987 115 169</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>0.1194605529308319</v>
+        <v>0.1822246015071869</v>
       </c>
     </row>
     <row r="109">
@@ -4775,39 +4775,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1589111587963998</v>
+        <v>0.2063058523031381</v>
       </c>
       <c r="C109" t="n">
-        <v>0.001728846153846154</v>
+        <v>0.01405</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9982711538461537</v>
+        <v>0.9859500000000001</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2694725364321113</v>
+        <v>0.02668937570810891</v>
       </c>
       <c r="G109" t="n">
-        <v>0.311852283949588</v>
+        <v>0.03123406717790625</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8615119585767359</v>
+        <v>0.8260101459494172</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9299305758487345</v>
+        <v>0.9060223699740964</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4090113822477641</v>
+        <v>0.05962724973775261</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>518858 858 41 243</t>
+          <t>512458 7258 48 236</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>0.1177172362804413</v>
+        <v>0.1667481958866119</v>
       </c>
     </row>
     <row r="110">
@@ -4815,39 +4815,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1308628503018274</v>
+        <v>0.1743308248428198</v>
       </c>
       <c r="C110" t="n">
-        <v>0.003115384615384616</v>
+        <v>0.06678076923076923</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9968846153846154</v>
+        <v>0.9332192307692309</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1782285367160021</v>
+        <v>0.007051966161726569</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1966012675226946</v>
+        <v>0.007493768224730252</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8896116366764141</v>
+        <v>0.9357838068364384</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9432762314588804</v>
+        <v>0.9345034058123608</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2925668923627843</v>
+        <v>0.01483405708654827</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>518126 1590 30 254</t>
+          <t>485011 34705 21 263</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>0.1186703369021416</v>
+        <v>0.1595849841833115</v>
       </c>
     </row>
     <row r="111">
@@ -4855,39 +4855,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1624694555245627</v>
+        <v>0.2488898057490587</v>
       </c>
       <c r="C111" t="n">
-        <v>0.001832692307692308</v>
+        <v>0.002751923076923077</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9981673076923074</v>
+        <v>0.9972480769230769</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2562520525420948</v>
+        <v>0.06725954357291403</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2964586430335961</v>
+        <v>0.1055978540263649</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8615119585767359</v>
+        <v>0.5608491570283068</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9298786208747583</v>
+        <v>0.7791758207685526</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3950096204828709</v>
+        <v>0.1707966017033107</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>518804 912 41 243</t>
+          <t>518418 1298 133 151</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>0.120783619582653</v>
+        <v>0.2805317044258118</v>
       </c>
     </row>
     <row r="112">
@@ -4895,39 +4895,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.124856003273565</v>
+        <v>0.2459918992737165</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003348076923076924</v>
+        <v>0.03054615384615384</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9966519230769233</v>
+        <v>0.9694538461538461</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1717604975092361</v>
+        <v>0.01112115501067213</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1879368560844834</v>
+        <v>0.01368518971981009</v>
       </c>
       <c r="H112" t="n">
-        <v>0.894706968694823</v>
+        <v>0.777170810521013</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9457055734434952</v>
+        <v>0.8733655642460701</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2817503519925281</v>
+        <v>0.02676053734484873</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>518003 1713 28 256</t>
+          <t>503896 15820 64 220</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>0.1196349114179611</v>
+        <v>0.3128925263881683</v>
       </c>
     </row>
     <row r="113">
@@ -4935,39 +4935,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1652718952033096</v>
+        <v>0.3021701377315017</v>
       </c>
       <c r="C113" t="n">
-        <v>0.001819230769230769</v>
+        <v>0.002136538461538462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9981807692307693</v>
+        <v>0.9978634615384616</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2554479054421173</v>
+        <v>0.08445370374895721</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2931548760515778</v>
+        <v>0.133205796509975</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8634350354998129</v>
+        <v>0.5723304641826908</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9308459410788744</v>
+        <v>0.7852214420572013</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3947816655727271</v>
+        <v>0.2067550674749679</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>518810 906 40 244</t>
+          <t>518735 981 130 154</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>0.1196488589048386</v>
+        <v>0.2228178977966309</v>
       </c>
     </row>
     <row r="114">
@@ -4975,39 +4975,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1412371496598308</v>
+        <v>0.1821914676290292</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002498076923076923</v>
+        <v>0.02961730769230769</v>
       </c>
       <c r="D114" t="n">
-        <v>0.997501923076923</v>
+        <v>0.9703826923076923</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2039296072003773</v>
+        <v>0.01418120736440216</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2301780554809998</v>
+        <v>0.01576946659754264</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8729893700541476</v>
+        <v>0.8625585278419288</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9352806481636274</v>
+        <v>0.916498115515306</v>
       </c>
       <c r="J114" t="n">
-        <v>0.3323022171234887</v>
+        <v>0.03081378353807325</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>518454 1262 37 247</t>
+          <t>504352 15364 37 247</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>0.1172436848282814</v>
+        <v>0.2312277257442474</v>
       </c>
     </row>
     <row r="115">
@@ -5015,39 +5015,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1395862739748107</v>
+        <v>0.1588391011150984</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002473076923076924</v>
+        <v>0.04454615384615385</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9975269230769229</v>
+        <v>0.9554538461538461</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2089156253357111</v>
+        <v>0.01008385606615951</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2347983340003428</v>
+        <v>0.01095171015190337</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8786226256874031</v>
+        <v>0.9137776079071626</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9381078555487582</v>
+        <v>0.9346295107051115</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3377803729973317</v>
+        <v>0.02156827323060697</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>518465 1251 35 249</t>
+          <t>496579 23137 27 257</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>0.1283711493015289</v>
+        <v>0.1743284463882446</v>
       </c>
     </row>
     <row r="116">
@@ -5055,39 +5055,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0853548848714966</v>
+        <v>0.2491186511917756</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01158461538461539</v>
+        <v>0.008380769230769232</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9884153846153847</v>
+        <v>0.9916192307692309</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.07016848707011626</v>
+        <v>0.02933172943458406</v>
       </c>
       <c r="G116" t="n">
-        <v>0.07249753482996216</v>
+        <v>0.04171034217825024</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9489997182304875</v>
+        <v>0.6586316433229389</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9687174455225593</v>
+        <v>0.8252193308100003</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1251151037417703</v>
+        <v>0.07715895589477578</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>513705 6011 13 271</t>
+          <t>515458 4258 100 184</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>0.1185099482536316</v>
+        <v>0.1893820911645889</v>
       </c>
     </row>
     <row r="117">
@@ -5095,39 +5095,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1170376660660482</v>
+        <v>0.1677636438264297</v>
       </c>
       <c r="C117" t="n">
-        <v>0.003861538461538462</v>
+        <v>0.03214807692307693</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9961384615384616</v>
+        <v>0.967851923076923</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1562837471223335</v>
+        <v>0.01360500612035122</v>
       </c>
       <c r="G117" t="n">
-        <v>0.170848200902267</v>
+        <v>0.01496086754172087</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8967312601927987</v>
+        <v>0.9082100984934993</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9464598956917839</v>
+        <v>0.9380510804743639</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2586120816634153</v>
+        <v>0.02929518168304387</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>517735 1981 27 257</t>
+          <t>503029 16687 30 254</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>0.1203079521656036</v>
+        <v>0.1725710183382034</v>
       </c>
     </row>
     <row r="118">
@@ -5135,39 +5135,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1224562632134901</v>
+        <v>4.602585714453688</v>
       </c>
       <c r="C118" t="n">
-        <v>0.003711538461538462</v>
+        <v>0.0007269230769230769</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9962884615384613</v>
+        <v>0.999273076923077</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1585545338108568</v>
+        <v>0.1784567571618413</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1730226647274989</v>
+        <v>0.3211085651092071</v>
       </c>
       <c r="H118" t="n">
-        <v>0.894706968694823</v>
+        <v>0.4261611083473432</v>
       </c>
       <c r="I118" t="n">
-        <v>0.945523773213176</v>
+        <v>0.7128765904814921</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2641870549455621</v>
+        <v>0.3488028617818401</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>517814 1902 28 256</t>
+          <t>519504 212 166 118</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>0.1313578933477402</v>
+        <v>0.3785420656204224</v>
       </c>
     </row>
     <row r="119">
@@ -5175,39 +5175,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1781026685717874</v>
+        <v>0.23393406231816</v>
       </c>
       <c r="C119" t="n">
-        <v>0.001257692307692308</v>
+        <v>0.005557692307692309</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9987423076923077</v>
+        <v>0.9944423076923073</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3162568646825861</v>
+        <v>0.05399089123897933</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3691999997756306</v>
+        <v>0.06921339500364646</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8585533786950792</v>
+        <v>0.7394484564018977</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9286879317925835</v>
+        <v>0.8670150477676754</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4656801463640914</v>
+        <v>0.1237913051298539</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>519104 612 42 242</t>
+          <t>516900 2816 74 210</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>0.1191691383719444</v>
+        <v>0.2871775031089783</v>
       </c>
     </row>
     <row r="120">
@@ -5215,39 +5215,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.09002770085890706</v>
+        <v>0.2874555248910418</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007996153846153846</v>
+        <v>0.003455769230769232</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9920038461538461</v>
+        <v>0.9965442307692306</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.09212953758973484</v>
+        <v>0.05753177728449966</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09691639745697953</v>
+        <v>0.088993115733353</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9247393632009017</v>
+        <v>0.5942961587445393</v>
       </c>
       <c r="I120" t="n">
-        <v>0.958388063493503</v>
+        <v>0.795536622981889</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1619862562884196</v>
+        <v>0.149222367940225</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>515577 4139 19 265</t>
+          <t>518041 1675 122 162</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>0.1265949755907059</v>
+        <v>0.2191026359796524</v>
       </c>
     </row>
     <row r="121">
@@ -5255,39 +5255,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.125824740407272</v>
+        <v>0.1679728349240927</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003396153846153846</v>
+        <v>0.03397884615384615</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9966038461538461</v>
+        <v>0.9660211538461539</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1696793308686901</v>
+        <v>0.0130733805004122</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1863838627046036</v>
+        <v>0.01427378542889247</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8910439650318194</v>
+        <v>0.9139159311224089</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9438519685029052</v>
+        <v>0.9399861905276011</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2804032093733998</v>
+        <v>0.02798022578362659</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>517980 1736 30 254</t>
+          <t>502075 17641 28 256</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>0.1275781244039536</v>
+        <v>0.1802227050065994</v>
       </c>
     </row>
     <row r="122">
@@ -5295,39 +5295,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.09349650864561017</v>
+        <v>0.1641201964364602</v>
       </c>
       <c r="C122" t="n">
-        <v>0.007582692307692309</v>
+        <v>0.03374230769230769</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9924173076923076</v>
+        <v>0.9662576923076922</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09690902599727527</v>
+        <v>0.01309145425006225</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1023958231952556</v>
+        <v>0.0143344952631988</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9219921104536488</v>
+        <v>0.9111686783751561</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9572222510037587</v>
+        <v>0.9387318692023772</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1699823149019103</v>
+        <v>0.02809535279554303</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>515793 3923 20 264</t>
+          <t>502199 17517 29 255</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>0.128661572933197</v>
+        <v>0.2109933346509933</v>
       </c>
     </row>
     <row r="123">
@@ -5335,39 +5335,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1163044683993436</v>
+        <v>0.2376176286488771</v>
       </c>
       <c r="C123" t="n">
-        <v>0.003651923076923077</v>
+        <v>0.002075</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9963480769230768</v>
+        <v>0.9979249999999998</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1637459859447344</v>
+        <v>0.08747927583543591</v>
       </c>
       <c r="G123" t="n">
-        <v>0.179267542522093</v>
+        <v>0.1379775894209612</v>
       </c>
       <c r="H123" t="n">
-        <v>0.894706968694823</v>
+        <v>0.5704645416436914</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9455535885519529</v>
+        <v>0.7843202340737633</v>
       </c>
       <c r="J123" t="n">
-        <v>0.269672677005668</v>
+        <v>0.2121944747788721</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>517845 1871 28 256</t>
+          <t>518768 948 131 153</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>0.1248534843325615</v>
+        <v>0.2543087601661682</v>
       </c>
     </row>
     <row r="124">
@@ -5375,39 +5375,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1689400954995877</v>
+        <v>0.1842117765201972</v>
       </c>
       <c r="C124" t="n">
-        <v>0.001538461538461538</v>
+        <v>0.02100384615384615</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9984615384615384</v>
+        <v>0.9789961538461541</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2854804152997339</v>
+        <v>0.02003207395154248</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3336885333613677</v>
+        <v>0.02236149021019049</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8615119585767359</v>
+        <v>0.8933652941750108</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9300258001923998</v>
+        <v>0.9362076645818417</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4291496420646564</v>
+        <v>0.04332430250860918</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>518957 759 41 243</t>
+          <t>508828 10888 34 250</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>0.1153127029538155</v>
+        <v>0.2134286910295486</v>
       </c>
     </row>
     <row r="125">
@@ -5415,39 +5415,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1159914071456744</v>
+        <v>0.1764752801794272</v>
       </c>
       <c r="C125" t="n">
-        <v>0.003886538461538462</v>
+        <v>0.06668653846153846</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9961134615384615</v>
+        <v>0.9333134615384614</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1563280380682018</v>
+        <v>0.007410761936725323</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1707792151196517</v>
+        <v>0.007709178180807696</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8967312601927987</v>
+        <v>0.9520327625590783</v>
       </c>
       <c r="I125" t="n">
-        <v>0.946447377745122</v>
+        <v>0.9426683189625893</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2584639706990333</v>
+        <v>0.01525893414287181</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>517722 1994 27 257</t>
+          <t>485053 34663 14 270</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>0.1248262748122215</v>
+        <v>0.18093241751194</v>
       </c>
     </row>
     <row r="126">
@@ -5455,39 +5455,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.09377469799409692</v>
+        <v>0.1736521450086282</v>
       </c>
       <c r="C126" t="n">
-        <v>0.006875</v>
+        <v>0.0277076923076923</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9931249999999998</v>
+        <v>0.9722923076923077</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1047474972496207</v>
+        <v>0.01581883459057147</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1110070761573636</v>
+        <v>0.01734734971895046</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9247393632009017</v>
+        <v>0.9111686783751561</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9589488343619437</v>
+        <v>0.9417507921142068</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1807298097956737</v>
+        <v>0.03386072817723999</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>516160 3556 19 265</t>
+          <t>505337 14379 29 255</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>0.1201188638806343</v>
+        <v>0.1598034054040909</v>
       </c>
     </row>
     <row r="127">
@@ -5495,39 +5495,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1298920611062875</v>
+        <v>0.2025999752088235</v>
       </c>
       <c r="C127" t="n">
-        <v>0.002890384615384616</v>
+        <v>0.00976153846153846</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9971096153846155</v>
+        <v>0.9902384615384616</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.187783276374247</v>
+        <v>0.0369268900929769</v>
       </c>
       <c r="G127" t="n">
-        <v>0.207626424214526</v>
+        <v>0.04374788940910722</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8889072128950672</v>
+        <v>0.8122527494997129</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9430375471660446</v>
+        <v>0.9012939049207573</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3063082895765689</v>
+        <v>0.0819037294125988</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>518244 1472 31 253</t>
+          <t>514693 5023 53 231</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>0.1184604242444038</v>
+        <v>0.1725349575281143</v>
       </c>
     </row>
     <row r="128">
@@ -5535,39 +5535,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1286783011343617</v>
+        <v>0.1663756030969895</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00285</v>
+        <v>0.02739038461538462</v>
       </c>
       <c r="D128" t="n">
-        <v>0.99715</v>
+        <v>0.9726096153846154</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1927954315423154</v>
+        <v>0.01596115836737339</v>
       </c>
       <c r="G128" t="n">
-        <v>0.2124978051113078</v>
+        <v>0.01748617662947503</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8907387147265691</v>
+        <v>0.9015532937597714</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9439725265855224</v>
+        <v>0.9371028159340091</v>
       </c>
       <c r="J128" t="n">
-        <v>0.31227764264344</v>
+        <v>0.0341211868943771</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>518264 1452 30 254</t>
+          <t>505503 14213 30 254</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>0.120786190032959</v>
+        <v>0.1810047924518585</v>
       </c>
     </row>
     <row r="129">
@@ -5575,39 +5575,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1595165981517102</v>
+        <v>0.1638241424583472</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001478846153846154</v>
+        <v>0.06786346153846154</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9985211538461539</v>
+        <v>0.9321365384615388</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2931573778317765</v>
+        <v>0.007370048232464677</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3365057367646446</v>
+        <v>0.007633628309395431</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8655717876365651</v>
+        <v>0.9614816470079629</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9320836246474189</v>
+        <v>0.9468020402295731</v>
       </c>
       <c r="J129" t="n">
-        <v>0.436416406468344</v>
+        <v>0.01511189525234456</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>518986 730 39 245</t>
+          <t>484439 35277 12 272</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>0.1220090389251709</v>
+        <v>0.1838430762290955</v>
       </c>
     </row>
     <row r="130">
@@ -5615,39 +5615,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1271001082271911</v>
+        <v>0.3851739792153239</v>
       </c>
       <c r="C130" t="n">
-        <v>0.002900000000000001</v>
+        <v>0.002205769230769231</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9971000000000001</v>
+        <v>0.9977942307692309</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1888084049468475</v>
+        <v>0.08360647651676524</v>
       </c>
       <c r="G130" t="n">
-        <v>0.2080492271728453</v>
+        <v>0.1328084781745639</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8907387147265691</v>
+        <v>0.5723304641826908</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9439475176869594</v>
+        <v>0.7851868177762094</v>
       </c>
       <c r="J130" t="n">
-        <v>0.3069391603835337</v>
+        <v>0.2050413697391866</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>518238 1478 30 254</t>
+          <t>518699 1017 130 154</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>0.1195534616708755</v>
+        <v>0.2104500234127045</v>
       </c>
     </row>
     <row r="131">
@@ -5655,39 +5655,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1106000236378839</v>
+        <v>0.2389943873366484</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004282692307692308</v>
+        <v>0.006536538461538463</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9957173076923079</v>
+        <v>0.9934634615384617</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1482379765921138</v>
+        <v>0.0385544545455928</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1594707256872032</v>
+        <v>0.05404956024847778</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9082697217312603</v>
+        <v>0.667112905650355</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9520165514246514</v>
+        <v>0.8303797083581748</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2458688983852732</v>
+        <v>0.09799679192140094</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>517514 2202 25 259</t>
+          <t>516414 3302 97 187</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>0.1234719753265381</v>
+        <v>0.2307224273681641</v>
       </c>
     </row>
     <row r="132">
@@ -5695,39 +5695,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1817712793484903</v>
+        <v>0.2007036277881036</v>
       </c>
       <c r="C132" t="n">
-        <v>0.001176923076923077</v>
+        <v>0.01233653846153846</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9988230769230767</v>
+        <v>0.9876634615384615</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325936493038651</v>
+        <v>0.03062409396140938</v>
       </c>
       <c r="G132" t="n">
-        <v>0.385680951525061</v>
+        <v>0.0356437822176265</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8567218768635774</v>
+        <v>0.8299783999176712</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9278135576808956</v>
+        <v>0.9088617586691859</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4771301232149178</v>
+        <v>0.06764458822572327</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>519147 569 43 241</t>
+          <t>513347 6369 46 238</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>0.1226671487092972</v>
+        <v>0.1820510625839233</v>
       </c>
     </row>
     <row r="133">
@@ -5735,39 +5735,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.112796825177681</v>
+        <v>0.1495270691812038</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004290384615384616</v>
+        <v>0.04601923076923078</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9957096153846154</v>
+        <v>0.9539807692307691</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1486102801153444</v>
+        <v>0.01007520132828213</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1598116060238356</v>
+        <v>0.01079667541284913</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9082697217312603</v>
+        <v>0.9277251987778303</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9520127127792122</v>
+        <v>0.9408625374568158</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2462756408512202</v>
+        <v>0.02127274602581854</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>517510 2206 25 259</t>
+          <t>495809 23907 23 261</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>0.1157939881086349</v>
+        <v>0.1627165079116821</v>
       </c>
     </row>
     <row r="134">
@@ -5775,39 +5775,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08401026096768104</v>
+        <v>0.168807592529517</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01044807692307692</v>
+        <v>0.06561346153846154</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9895519230769233</v>
+        <v>0.9343865384615384</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.07796731123991553</v>
+        <v>0.007558374373953106</v>
       </c>
       <c r="G134" t="n">
-        <v>0.08089346083478016</v>
+        <v>0.007861851396678639</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9434770357847282</v>
+        <v>0.9612207967471125</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9665265740996117</v>
+        <v>0.9477981940404684</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1381398941433501</v>
+        <v>0.01555901363578253</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>514298 5418 15 269</t>
+          <t>485610 34106 13 271</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>0.1134689450263977</v>
+        <v>0.2011479288339615</v>
       </c>
     </row>
     <row r="135">
@@ -5815,39 +5815,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1164733452292589</v>
+        <v>0.1499557942152023</v>
       </c>
       <c r="C135" t="n">
-        <v>0.003300000000000001</v>
+        <v>0.05046153846153846</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9966999999999999</v>
+        <v>0.9495384615384614</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1787279081762905</v>
+        <v>0.009403250416641971</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1941146411612651</v>
+        <v>0.009954041054327921</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8947985437863981</v>
+        <v>0.9368827079353395</v>
       </c>
       <c r="I135" t="n">
-        <v>0.945775442760467</v>
+        <v>0.943216008548949</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2896437417678575</v>
+        <v>0.01963801598744738</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>518028 1688 28 256</t>
+          <t>493496 26220 20 264</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>0.1204286441206932</v>
+        <v>0.1857109218835831</v>
       </c>
     </row>
     <row r="136">
@@ -5855,39 +5855,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1587377588013903</v>
+        <v>0.1454352647639238</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001823076923076924</v>
+        <v>0.03586538461538462</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9981769230769229</v>
+        <v>0.9641346153846155</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2520234963804455</v>
+        <v>0.01272598875090164</v>
       </c>
       <c r="G136" t="n">
-        <v>0.290199916464736</v>
+        <v>0.01368730232466285</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8634350354998129</v>
+        <v>0.9142354833650379</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9308440007749385</v>
+        <v>0.9391992894478285</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3911224119786281</v>
+        <v>0.02685540266889206</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>518808 908 40 244</t>
+          <t>501091 18625 25 259</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>0.1152243837714195</v>
+        <v>0.1707151681184769</v>
       </c>
     </row>
     <row r="137">
@@ -5895,39 +5895,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1579482700281705</v>
+        <v>0.1734473645113982</v>
       </c>
       <c r="C137" t="n">
-        <v>0.001511538461538462</v>
+        <v>0.02093269230769231</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9984884615384615</v>
+        <v>0.9790673076923077</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2887433688434102</v>
+        <v>0.0207881803418712</v>
       </c>
       <c r="G137" t="n">
-        <v>0.3310273286695088</v>
+        <v>0.02278789729110292</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8655717876365651</v>
+        <v>0.9118916396244333</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9320672707496894</v>
+        <v>0.9455015975752217</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4307987261179005</v>
+        <v>0.04416127316324582</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>518969 747 39 245</t>
+          <t>508860 10856 29 255</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>0.1143669635057449</v>
+        <v>0.1782987862825394</v>
       </c>
     </row>
     <row r="138">
@@ -5935,39 +5935,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158158876413766</v>
+        <v>0.1549984948852887</v>
       </c>
       <c r="C138" t="n">
-        <v>0.001805769230769231</v>
+        <v>0.02705961538461538</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9981942307692309</v>
+        <v>0.9729403846153848</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.253056087289961</v>
+        <v>0.01614764164174588</v>
       </c>
       <c r="G138" t="n">
-        <v>0.2899462503871983</v>
+        <v>0.01769642899057688</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8634350354998129</v>
+        <v>0.9015532937597714</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9308526667957444</v>
+        <v>0.9372682899917759</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3924938823027971</v>
+        <v>0.0345198536072801</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>518817 899 40 244</t>
+          <t>505675 14041 30 254</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>0.12274269759655</v>
+        <v>0.1772272288799286</v>
       </c>
     </row>
     <row r="139">
@@ -5975,39 +5975,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2072145386706465</v>
+        <v>0.1961634431320887</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0008730769230769228</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.999126923076923</v>
+        <v>0.9912000000000002</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3536533260232925</v>
+        <v>0.0419014407549776</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4591368211560353</v>
+        <v>0.04893221899712276</v>
       </c>
       <c r="H139" t="n">
-        <v>0.7810125434619362</v>
+        <v>0.8220257025925043</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8901262578391602</v>
+        <v>0.9066575631414828</v>
       </c>
       <c r="J139" t="n">
-        <v>0.5118862316750111</v>
+        <v>0.09102375921915087</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>519321 395 59 225</t>
+          <t>515189 4527 49 235</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>0.1189849898219109</v>
+        <v>0.1625478118658066</v>
       </c>
     </row>
     <row r="140">
@@ -6015,39 +6015,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1002369273382311</v>
+        <v>0.2789585895549793</v>
       </c>
       <c r="C140" t="n">
-        <v>0.005353846153846154</v>
+        <v>0.003878846153846154</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9946461538461537</v>
+        <v>0.9961211538461535</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1293224801041783</v>
+        <v>0.05347871567256158</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1377307323279768</v>
+        <v>0.08114673547992586</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9219921104536488</v>
+        <v>0.6070088733803309</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9583370359401173</v>
+        <v>0.8016784345810911</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2136544565440303</v>
+        <v>0.1386922694416562</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>516952 2764 20 264</t>
+          <t>517818 1898 119 165</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>0.1177450343966484</v>
+        <v>0.335805356502533</v>
       </c>
     </row>
     <row r="141">
@@ -6055,39 +6055,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1111820099087289</v>
+        <v>0.1489333665141692</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004225</v>
+        <v>0.05982307692307692</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9957750000000001</v>
+        <v>0.9401769230769228</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1467053920667731</v>
+        <v>0.008359716055320925</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1581242406592026</v>
+        <v>0.008662729608084715</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9082697217312603</v>
+        <v>0.9644120499383658</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9520453823689592</v>
+        <v>0.9522896560524615</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2439108570946746</v>
+        <v>0.01712630899102289</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>517544 2172 25 259</t>
+          <t>488620 31096 12 272</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>0.1181039214134216</v>
+        <v>0.2188461720943451</v>
       </c>
     </row>
     <row r="142">
@@ -6095,39 +6095,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1006891517183529</v>
+        <v>0.1445735724499592</v>
       </c>
       <c r="C142" t="n">
-        <v>0.004742307692307692</v>
+        <v>0.05047115384615386</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9952576923076926</v>
+        <v>0.9495288461538464</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1417904622686897</v>
+        <v>0.009711397485792812</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1505432181866075</v>
+        <v>0.01013725230745663</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9219921104536488</v>
+        <v>0.948736059262375</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9586430300048436</v>
+        <v>0.9491330735430196</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2343076363978358</v>
+        <v>0.01999876736011124</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>517270 2446 20 264</t>
+          <t>493486 26230 15 269</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>0.1180872917175293</v>
+        <v>0.175147756934166</v>
       </c>
     </row>
     <row r="143">
@@ -6135,39 +6135,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1022410332941665</v>
+        <v>0.1659487239443339</v>
       </c>
       <c r="C143" t="n">
-        <v>0.004628846153846154</v>
+        <v>0.02186346153846154</v>
       </c>
       <c r="D143" t="n">
-        <v>0.995371153846154</v>
+        <v>0.9781365384615387</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1460731797618955</v>
+        <v>0.01969586333040913</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1556665211558744</v>
+        <v>0.02167900862944266</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9219921104536488</v>
+        <v>0.8995290022617959</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9586997682252382</v>
+        <v>0.9388565781961413</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2390697788371155</v>
+        <v>0.04206074051980822</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>517329 2387 20 264</t>
+          <t>508378 11338 31 253</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>0.1186671555042267</v>
+        <v>0.2042634189128876</v>
       </c>
     </row>
     <row r="144">
@@ -6175,39 +6175,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.09289660190160458</v>
+        <v>0.1560575267156729</v>
       </c>
       <c r="C144" t="n">
-        <v>0.006323076923076923</v>
+        <v>0.02172115384615385</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9936769230769233</v>
+        <v>0.9782788461538463</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1111539554430977</v>
+        <v>0.01985257880742458</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1180417442772183</v>
+        <v>0.02186245273407346</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9219921104536488</v>
+        <v>0.896058788265266</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9578523222679929</v>
+        <v>0.9371926815848735</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1924963524300952</v>
+        <v>0.04239857894600704</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>516448 3268 20 264</t>
+          <t>508452 11264 31 253</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>0.125426858663559</v>
+        <v>0.1660636216402054</v>
       </c>
     </row>
     <row r="145">
@@ -6215,39 +6215,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.114067366024336</v>
+        <v>0.1451650359309637</v>
       </c>
       <c r="C145" t="n">
-        <v>0.003253846153846153</v>
+        <v>0.03281346153846155</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9967461538461539</v>
+        <v>0.9671865384615388</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1729352669852471</v>
+        <v>0.01383479049499344</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1894732620139538</v>
+        <v>0.01494795609425435</v>
       </c>
       <c r="H145" t="n">
-        <v>0.894706968694823</v>
+        <v>0.921075438281916</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9457526975352286</v>
+        <v>0.9441460616280936</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2834075534942709</v>
+        <v>0.02927989884493296</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>518052 1664 28 256</t>
+          <t>502678 17038 25 259</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>0.1167389005422592</v>
+        <v>0.1664106398820877</v>
       </c>
     </row>
     <row r="146">
@@ -6255,1838 +6255,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.08698662087464562</v>
+        <v>0.3983609578572214</v>
       </c>
       <c r="C146" t="n">
-        <v>0.007386538461538462</v>
+        <v>0.0006453124999999998</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9926134615384616</v>
+        <v>0.9993546875000002</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
-      <c r="F146" t="n">
-        <v>0.09782794003345491</v>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="n">
-        <v>0.1036869128748964</v>
+        <v>0.4768649436404254</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9247393632009017</v>
+        <v>0.4962820276245441</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9586929525680178</v>
+        <v>0.7479760379444331</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1706470254509881</v>
+        <v>0.4753689657842096</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>515894 3822 19 265</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>0.1155344843864441</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.130207063540673</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.002528846153846154</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.9974711538461539</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.2064780214064855</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.2291642328340396</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.8889072128950672</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.9432183751274021</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.3319403702963933</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>518432 1284 31 253</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>0.1150524914264679</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.1250101023604377</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.002790384615384616</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.9972096153846154</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.1914455341551697</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.2118043978848762</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.8910439650318194</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.9441549647204464</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.3111752306033952</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>518295 1421 30 254</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>0.125053733587265</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.09914066925501594</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.005342307692307692</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.9946576923076922</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.1296016794126534</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.1379734817415984</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.9152904787520172</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.95499403217834</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.2174393354698697</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>516960 2756 22 262</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>0.1161523684859276</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.09232539020908567</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.006069230769230769</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.9939307692307691</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.1157568482038401</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.122516338284337</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.9247393632009017</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.9593519487566129</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.1984677671801009</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>516579 3137 19 265</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>0.1150838285684586</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.1130715051236061</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.003163461538461538</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.9968365384615384</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.182674564560942</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.1979598716496475</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.8998351738230282</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.9483600968992602</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.2944382575548917</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>518097 1619 26 258</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>0.1212522462010384</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.1194012534733002</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.002890384615384616</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.9971096153846154</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.1874548061604452</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.2077599502750759</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.8889072128950672</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.9430375360976698</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.3053774943059775</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>518244 1472 31 253</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>0.1208936870098114</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.1385971870130071</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.001990384615384615</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.9980096153846154</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.2479840265167664</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.2779872875644139</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.8870757110635654</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.942572951079289</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.3823538564052205</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>518713 1003 32 252</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>0.1239240616559982</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.1417666501902904</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.002009615384615384</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.9979903846153846</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.2447669965777583</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.2743951250017384</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.883579207567062</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.9408160409139785</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.3790390078958779</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>518704 1012 33 251</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>0.1152364984154701</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.1998234869231685</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.0009442307692307691</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.999055769230769</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.3536692553103757</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.4277348478748377</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.8081422513608747</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.9036478307269887</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.5037104853126096</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>519276 440 51 233</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>0.1077800020575523</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.1385876319299524</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.002019230769230769</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.9979807692307693</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.2498178940155082</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.2794847340032552</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.8889072128950672</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.9434732974095792</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.3825198470789279</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>518697 1019 31 253</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>0.1226709708571434</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.1758609699586836</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.001165384615384615</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.9988346153846154</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.3279089274179575</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.3826129428779587</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.8510747462164467</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.9249947747345362</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.4765075447835449</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>519152 564 42 242</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>0.1186592280864716</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.114980639782376</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.003421153846153847</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.996578846153846</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.1688019775781204</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.1849115972342843</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.894706968694823</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.945668996204822</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.2769566040903046</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>517965 1751 28 256</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>0.1234128251671791</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.08595227611322816</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.00736923076923077</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.9926307692307692</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.09926406299148603</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.105123410746037</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.9247393632009017</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.9587016161852819</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.1721891685435662</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>515903 3813 19 265</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>0.1162625327706337</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.09888354885893372</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.004509615384615384</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.9954903846153844</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.148254159459256</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.157840900400652</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.9219921104536488</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.9587593954406253</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.2410266893061015</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>517391 2325 20 264</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>0.1189513653516769</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.1814142487620791</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.001203846153846154</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.9987961538461539</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.3205357499570525</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.3781724351083356</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.8585533786950792</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.9287148628081692</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.4715482994498829</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>519132 584 42 242</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>0.12260402739048</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.1718931153165893</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.001221153846153846</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.9987788461538464</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.3198325834239411</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.3727264488779619</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.8628268829685836</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.9308410254622643</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.4681343001977152</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>519121 595 40 244</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>0.1230249106884003</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.1015308570260039</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.004153846153846155</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.9958461538461538</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.1552354803709816</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.1656807175117931</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.9184956069571454</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.9571900657570172</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.2521444848583095</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>517577 2139 21 263</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>0.1142247319221497</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.1184841629404288</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.002773076923076922</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.997226923076923</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.19685323472895</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.2168289750347497</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.8979120968999511</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.9475947788068795</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.316917847969494</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>518301 1415 27 257</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>0.1154372915625572</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.09825933491811156</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.004561538461538462</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.9954384615384616</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.1447547369579474</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.1539818593440032</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0.9247393632009017</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.9601061040836047</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.2396955224887831</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>517363 2353 19 265</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>0.1140555515885353</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.1509583304958561</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.001638461538461539</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.9983615384615384</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.2799687044206507</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.3167307622634692</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.8778733749381524</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.9381507279421789</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.4187762010704709</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>518899 817 35 249</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>0.1212859079241753</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.1463082871722201</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.001778846153846153</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.9982211538461538</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.2544033455595827</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.2851209729580327</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.8808319548198091</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.9395588236251124</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.393890847698431</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>518825 891 34 250</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>0.118397057056427</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.1380389337965216</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.001834615384615384</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.9981653846153848</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.2566576517828594</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.2885689053021376</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.8870757110635654</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.9426508684070634</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.3939553781834367</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>518794 922 32 252</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>0.1153161227703094</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.1630190945087144</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.001182692307692308</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.9988173076923078</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.326356516155825</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.3778321166292127</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.8647499598916605</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.9318208448957163</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.4747379737345842</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>519140 576 39 245</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>0.1300573348999023</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.1351781140368145</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.001994230769230769</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.9980057692307694</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.2415607396232531</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.2718429318857561</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.8870757110635654</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.9425710110160866</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.3763361740676459</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>518711 1005 32 252</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>0.1162758842110634</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.1599312055712709</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.001290384615384615</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.9987096153846152</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.3090658170507724</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.3563478625552504</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0.8677085397733173</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.9332452994821877</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.4572004657899577</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>519083 633 38 246</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>0.1150721684098244</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.145703424144393</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.001782692307692308</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.9982173076923081</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.2651442841053032</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.298125258319831</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.883579207567062</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.9409295500789637</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.4015649473458157</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>518822 894 33 251</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>0.1147346794605255</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.1632751092995302</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.001213461538461538</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.9987865384615383</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.3204963116627554</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.3675170793828611</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0.8696316166963941</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.9342443683047542</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.4687462540515474</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>519122 594 37 247</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>0.1183638051152229</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.1065691043622792</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.003342307692307693</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.9966576923076923</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.1739546108264035</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.1871834783223156</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0.9115873105751648</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0.9541447747684787</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0.2809901088135552</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>518002 1714 24 260</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>0.1146605536341667</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.08526156000936261</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.006465384615384617</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.9935346153846154</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.1090155819650523</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.1156683440052018</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.9247393632009017</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.9591537372673853</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.1878073591689068</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>516373 3343 19 265</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>0.1093229129910469</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.1224408462966004</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.002309615384615385</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.9976903846153846</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.2257781022642273</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.2509915619302381</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.8957753447631991</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.9467592017971105</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.35308877821139</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>518543 1173 28 256</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>0.1161130517721176</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.1307228046576851</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.002076923076923077</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.997923076923077</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.2347581657784883</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.262398507099996</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.8889072128950672</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.9434444342755189</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.3677543527248476</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>518667 1049 31 253</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>0.1163095682859421</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.1694586054565242</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.001096153846153846</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.9989038461538462</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.3397125778055567</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.3970065977876291</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.8609953811370817</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.9299887661548131</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.490551730131231</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>519187 529 41 243</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>0.110085092484951</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.1032647808046582</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.003492307692307693</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.9965076923076924</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.1749051834541958</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.18757427953202</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.9184956069571454</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.9575209500971529</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.2808779111840409</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>517921 1795 21 263</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>0.1207085773348808</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.1785870332342501</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.0009673076923076921</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.9990326923076923</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.3495980288312427</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.4131223118434786</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.8348964800381805</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.9170076212551628</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.5029777958784046</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>519258 458 45 239</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>0.1176056265830994</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.09269776227525793</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.004390384615384615</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.9956096153846153</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.1436043605375444</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.1527606721643616</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.9247393632009017</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.9601917076055952</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.2393716738520856</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>517452 2264 19 265</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>0.1278773695230484</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.1770286682026031</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.0009615384615384616</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.9990384615384615</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.3529396913949361</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.4154240759979163</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.8520043721460726</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.9255625363068294</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.5073986992428762</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>519259 457 43 241</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>0.1179170683026314</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.1028682332342634</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.00321923076923077</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.9967807692307692</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.1819813811568537</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.1948667578256007</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.9192185682064226</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.9580190838888699</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.2920217535251488</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>518063 1653 21 263</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>0.1195877715945244</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.1210119079511899</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.002351923076923077</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.9976480769230769</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.2110076117403983</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.2347374533514981</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.8892124632003175</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.9434595044459388</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.3385661577258663</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>518524 1192 31 253</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>0.1198436170816422</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.1542243622064304</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.001328846153846154</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.9986711538461537</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.2987606390650395</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.3402788247055132</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.872378869443647</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.9355593077799219</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.4470593030845934</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>519061 655 36 248</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>0.11289943754673</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.1443336228840053</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.001436538461538461</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.9985634615384615</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.2923312845261093</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.3292836504017602</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.8870757110635654</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.9428500044819584</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.4375578985261297</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>519001 715 32 252</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>0.1174722164869308</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.09130691937529124</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.004651923076923077</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.9953480769230769</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.1381945795382342</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.1469823571149268</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0.9247393632009017</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.9600608750189698</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.2316441215486343</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>517316 2400 19 265</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>0.1174797415733337</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.09626016558076327</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.00395</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.9960499999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.1527792811313766</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.1633707636621315</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.9184956069571454</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.9572920434403682</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.2536821013585925</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>517683 2033 21 263</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>0.1186026185750961</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.07292079438383763</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.0133576923076923</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.9866423076923078</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.05996655543530179</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.06097437480096704</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.9644406875176106</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.9755451245013356</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.1089739405033143</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>512777 6939 7 277</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>0.1158763319253922</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.1206148386789629</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.002251923076923077</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.9977480769230768</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.2218983860320236</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.2463427063721929</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.8910439650318194</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.9444243102737769</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.3516086749037933</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>518575 1141 30 254</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>0.1278097778558731</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.2332716731107212</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.0008781250000000002</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.9991218749999998</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.4039509524957166</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.4873328944666592</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.7632367901518202</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.8812368648648954</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.5684270478712521</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>639070 488 74 368</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr"/>
+          <t>639347 211 202 240</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
